--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -304,6 +304,9 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['25', '45+7']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -329,6 +332,9 @@
   </si>
   <si>
     <t>['4', '58', '70', '90']</t>
+  </si>
+  <si>
+    <t>['12', '90+10']</t>
   </si>
 </sst>
 </file>
@@ -690,7 +696,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP17"/>
+  <dimension ref="A1:BP18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +955,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1155,7 +1161,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1361,7 +1367,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1567,7 +1573,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1773,7 +1779,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2391,7 +2397,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3009,7 +3015,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3627,7 +3633,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4039,7 +4045,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4117,7 +4123,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
         <v>3</v>
@@ -4196,6 +4202,212 @@
       </c>
       <c r="BP17">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7347773</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45380.35763888889</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q18">
+        <v>2.75</v>
+      </c>
+      <c r="R18">
+        <v>2.1</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <v>1.41</v>
+      </c>
+      <c r="U18">
+        <v>2.7</v>
+      </c>
+      <c r="V18">
+        <v>2.85</v>
+      </c>
+      <c r="W18">
+        <v>1.37</v>
+      </c>
+      <c r="X18">
+        <v>6.95</v>
+      </c>
+      <c r="Y18">
+        <v>1.07</v>
+      </c>
+      <c r="Z18">
+        <v>2.01</v>
+      </c>
+      <c r="AA18">
+        <v>3.18</v>
+      </c>
+      <c r="AB18">
+        <v>3.34</v>
+      </c>
+      <c r="AC18">
+        <v>1.06</v>
+      </c>
+      <c r="AD18">
+        <v>8</v>
+      </c>
+      <c r="AE18">
+        <v>1.3</v>
+      </c>
+      <c r="AF18">
+        <v>3.3</v>
+      </c>
+      <c r="AG18">
+        <v>1.9</v>
+      </c>
+      <c r="AH18">
+        <v>1.77</v>
+      </c>
+      <c r="AI18">
+        <v>1.75</v>
+      </c>
+      <c r="AJ18">
+        <v>2</v>
+      </c>
+      <c r="AK18">
+        <v>1.3</v>
+      </c>
+      <c r="AL18">
+        <v>1.25</v>
+      </c>
+      <c r="AM18">
+        <v>1.68</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0.5</v>
+      </c>
+      <c r="AQ18">
+        <v>1</v>
+      </c>
+      <c r="AR18">
+        <v>1.67</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>1.67</v>
+      </c>
+      <c r="AU18">
+        <v>4</v>
+      </c>
+      <c r="AV18">
+        <v>7</v>
+      </c>
+      <c r="AW18">
+        <v>5</v>
+      </c>
+      <c r="AX18">
+        <v>3</v>
+      </c>
+      <c r="AY18">
+        <v>9</v>
+      </c>
+      <c r="AZ18">
+        <v>10</v>
+      </c>
+      <c r="BA18">
+        <v>6</v>
+      </c>
+      <c r="BB18">
+        <v>9</v>
+      </c>
+      <c r="BC18">
+        <v>15</v>
+      </c>
+      <c r="BD18">
+        <v>1.67</v>
+      </c>
+      <c r="BE18">
+        <v>8</v>
+      </c>
+      <c r="BF18">
+        <v>2.62</v>
+      </c>
+      <c r="BG18">
+        <v>1.32</v>
+      </c>
+      <c r="BH18">
+        <v>3.1</v>
+      </c>
+      <c r="BI18">
+        <v>1.61</v>
+      </c>
+      <c r="BJ18">
+        <v>2.17</v>
+      </c>
+      <c r="BK18">
+        <v>2.07</v>
+      </c>
+      <c r="BL18">
+        <v>1.67</v>
+      </c>
+      <c r="BM18">
+        <v>2.77</v>
+      </c>
+      <c r="BN18">
+        <v>1.39</v>
+      </c>
+      <c r="BO18">
+        <v>3.84</v>
+      </c>
+      <c r="BP18">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="111">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -265,12 +265,12 @@
     <t>Sichuan Jiuniu</t>
   </si>
   <si>
+    <t>Wuhan Three Towns</t>
+  </si>
+  <si>
     <t>Changchun Yatai</t>
   </si>
   <si>
-    <t>Wuhan Three Towns</t>
-  </si>
-  <si>
     <t>Beijing Guoan</t>
   </si>
   <si>
@@ -307,6 +307,12 @@
     <t>['25', '45+7']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['56', '89', '90+7']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -335,6 +341,12 @@
   </si>
   <si>
     <t>['12', '90+10']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
 </sst>
 </file>
@@ -696,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP18"/>
+  <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -931,7 +943,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I2">
         <v>3</v>
@@ -955,7 +967,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1161,7 +1173,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1239,10 +1251,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1343,7 +1355,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1367,7 +1379,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1573,7 +1585,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1654,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1779,7 +1791,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -1860,7 +1872,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2397,7 +2409,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2579,7 +2591,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3015,7 +3027,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3302,7 +3314,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AR13">
         <v>2.48</v>
@@ -3609,7 +3621,7 @@
         <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -3633,7 +3645,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4045,7 +4057,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4251,7 +4263,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4407,6 +4419,830 @@
         <v>3.84</v>
       </c>
       <c r="BP18">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7347774</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45381.1875</v>
+      </c>
+      <c r="F19">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="s">
+        <v>90</v>
+      </c>
+      <c r="P19" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q19">
+        <v>3.5</v>
+      </c>
+      <c r="R19">
+        <v>2.3</v>
+      </c>
+      <c r="S19">
+        <v>2.75</v>
+      </c>
+      <c r="T19">
+        <v>1.35</v>
+      </c>
+      <c r="U19">
+        <v>2.95</v>
+      </c>
+      <c r="V19">
+        <v>2.5</v>
+      </c>
+      <c r="W19">
+        <v>1.47</v>
+      </c>
+      <c r="X19">
+        <v>5.95</v>
+      </c>
+      <c r="Y19">
+        <v>1.1</v>
+      </c>
+      <c r="Z19">
+        <v>2.8</v>
+      </c>
+      <c r="AA19">
+        <v>3.35</v>
+      </c>
+      <c r="AB19">
+        <v>2.02</v>
+      </c>
+      <c r="AC19">
+        <v>1.04</v>
+      </c>
+      <c r="AD19">
+        <v>9</v>
+      </c>
+      <c r="AE19">
+        <v>1.22</v>
+      </c>
+      <c r="AF19">
+        <v>4</v>
+      </c>
+      <c r="AG19">
+        <v>1.75</v>
+      </c>
+      <c r="AH19">
+        <v>2.02</v>
+      </c>
+      <c r="AI19">
+        <v>1.57</v>
+      </c>
+      <c r="AJ19">
+        <v>2.3</v>
+      </c>
+      <c r="AK19">
+        <v>1.66</v>
+      </c>
+      <c r="AL19">
+        <v>1.25</v>
+      </c>
+      <c r="AM19">
+        <v>1.36</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>2</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19">
+        <v>2.33</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>1.36</v>
+      </c>
+      <c r="AT19">
+        <v>1.36</v>
+      </c>
+      <c r="AU19">
+        <v>2</v>
+      </c>
+      <c r="AV19">
+        <v>4</v>
+      </c>
+      <c r="AW19">
+        <v>5</v>
+      </c>
+      <c r="AX19">
+        <v>6</v>
+      </c>
+      <c r="AY19">
+        <v>7</v>
+      </c>
+      <c r="AZ19">
+        <v>10</v>
+      </c>
+      <c r="BA19">
+        <v>3</v>
+      </c>
+      <c r="BB19">
+        <v>6</v>
+      </c>
+      <c r="BC19">
+        <v>9</v>
+      </c>
+      <c r="BD19">
+        <v>2.5</v>
+      </c>
+      <c r="BE19">
+        <v>8</v>
+      </c>
+      <c r="BF19">
+        <v>1.73</v>
+      </c>
+      <c r="BG19">
+        <v>1.34</v>
+      </c>
+      <c r="BH19">
+        <v>3</v>
+      </c>
+      <c r="BI19">
+        <v>1.67</v>
+      </c>
+      <c r="BJ19">
+        <v>2.07</v>
+      </c>
+      <c r="BK19">
+        <v>2.13</v>
+      </c>
+      <c r="BL19">
+        <v>1.63</v>
+      </c>
+      <c r="BM19">
+        <v>2.9</v>
+      </c>
+      <c r="BN19">
+        <v>1.36</v>
+      </c>
+      <c r="BO19">
+        <v>3.35</v>
+      </c>
+      <c r="BP19">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7347775</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45381.33333333334</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>97</v>
+      </c>
+      <c r="P20" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20">
+        <v>1.73</v>
+      </c>
+      <c r="R20">
+        <v>2.6</v>
+      </c>
+      <c r="S20">
+        <v>8</v>
+      </c>
+      <c r="T20">
+        <v>1.3</v>
+      </c>
+      <c r="U20">
+        <v>3.25</v>
+      </c>
+      <c r="V20">
+        <v>2.39</v>
+      </c>
+      <c r="W20">
+        <v>1.52</v>
+      </c>
+      <c r="X20">
+        <v>5.45</v>
+      </c>
+      <c r="Y20">
+        <v>1.12</v>
+      </c>
+      <c r="Z20">
+        <v>1.29</v>
+      </c>
+      <c r="AA20">
+        <v>4.5</v>
+      </c>
+      <c r="AB20">
+        <v>6.5</v>
+      </c>
+      <c r="AC20">
+        <v>1.03</v>
+      </c>
+      <c r="AD20">
+        <v>10</v>
+      </c>
+      <c r="AE20">
+        <v>1.2</v>
+      </c>
+      <c r="AF20">
+        <v>4.33</v>
+      </c>
+      <c r="AG20">
+        <v>1.71</v>
+      </c>
+      <c r="AH20">
+        <v>2.07</v>
+      </c>
+      <c r="AI20">
+        <v>2</v>
+      </c>
+      <c r="AJ20">
+        <v>1.75</v>
+      </c>
+      <c r="AK20">
+        <v>1.01</v>
+      </c>
+      <c r="AL20">
+        <v>1.11</v>
+      </c>
+      <c r="AM20">
+        <v>3.4</v>
+      </c>
+      <c r="AN20">
+        <v>3</v>
+      </c>
+      <c r="AO20">
+        <v>1</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20">
+        <v>0.5</v>
+      </c>
+      <c r="AR20">
+        <v>1.66</v>
+      </c>
+      <c r="AS20">
+        <v>1.06</v>
+      </c>
+      <c r="AT20">
+        <v>2.72</v>
+      </c>
+      <c r="AU20">
+        <v>4</v>
+      </c>
+      <c r="AV20">
+        <v>3</v>
+      </c>
+      <c r="AW20">
+        <v>3</v>
+      </c>
+      <c r="AX20">
+        <v>2</v>
+      </c>
+      <c r="AY20">
+        <v>7</v>
+      </c>
+      <c r="AZ20">
+        <v>5</v>
+      </c>
+      <c r="BA20">
+        <v>4</v>
+      </c>
+      <c r="BB20">
+        <v>3</v>
+      </c>
+      <c r="BC20">
+        <v>7</v>
+      </c>
+      <c r="BD20">
+        <v>1.3</v>
+      </c>
+      <c r="BE20">
+        <v>9.5</v>
+      </c>
+      <c r="BF20">
+        <v>4</v>
+      </c>
+      <c r="BG20">
+        <v>1.28</v>
+      </c>
+      <c r="BH20">
+        <v>3.18</v>
+      </c>
+      <c r="BI20">
+        <v>1.5</v>
+      </c>
+      <c r="BJ20">
+        <v>2.4</v>
+      </c>
+      <c r="BK20">
+        <v>1.98</v>
+      </c>
+      <c r="BL20">
+        <v>1.82</v>
+      </c>
+      <c r="BM20">
+        <v>2.47</v>
+      </c>
+      <c r="BN20">
+        <v>1.48</v>
+      </c>
+      <c r="BO20">
+        <v>3.42</v>
+      </c>
+      <c r="BP20">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7347776</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45381.35763888889</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>2.2</v>
+      </c>
+      <c r="S21">
+        <v>3.5</v>
+      </c>
+      <c r="T21">
+        <v>1.37</v>
+      </c>
+      <c r="U21">
+        <v>2.85</v>
+      </c>
+      <c r="V21">
+        <v>2.7</v>
+      </c>
+      <c r="W21">
+        <v>1.41</v>
+      </c>
+      <c r="X21">
+        <v>6.45</v>
+      </c>
+      <c r="Y21">
+        <v>1.09</v>
+      </c>
+      <c r="Z21">
+        <v>2.25</v>
+      </c>
+      <c r="AA21">
+        <v>3.25</v>
+      </c>
+      <c r="AB21">
+        <v>2.75</v>
+      </c>
+      <c r="AC21">
+        <v>1.01</v>
+      </c>
+      <c r="AD21">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE21">
+        <v>1.28</v>
+      </c>
+      <c r="AF21">
+        <v>3.5</v>
+      </c>
+      <c r="AG21">
+        <v>1.85</v>
+      </c>
+      <c r="AH21">
+        <v>1.95</v>
+      </c>
+      <c r="AI21">
+        <v>1.68</v>
+      </c>
+      <c r="AJ21">
+        <v>2.1</v>
+      </c>
+      <c r="AK21">
+        <v>1.4</v>
+      </c>
+      <c r="AL21">
+        <v>1.25</v>
+      </c>
+      <c r="AM21">
+        <v>1.57</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>2</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0.99</v>
+      </c>
+      <c r="AS21">
+        <v>0.85</v>
+      </c>
+      <c r="AT21">
+        <v>1.84</v>
+      </c>
+      <c r="AU21">
+        <v>5</v>
+      </c>
+      <c r="AV21">
+        <v>6</v>
+      </c>
+      <c r="AW21">
+        <v>4</v>
+      </c>
+      <c r="AX21">
+        <v>11</v>
+      </c>
+      <c r="AY21">
+        <v>9</v>
+      </c>
+      <c r="AZ21">
+        <v>17</v>
+      </c>
+      <c r="BA21">
+        <v>1</v>
+      </c>
+      <c r="BB21">
+        <v>4</v>
+      </c>
+      <c r="BC21">
+        <v>5</v>
+      </c>
+      <c r="BD21">
+        <v>1.95</v>
+      </c>
+      <c r="BE21">
+        <v>7.5</v>
+      </c>
+      <c r="BF21">
+        <v>2.1</v>
+      </c>
+      <c r="BG21">
+        <v>1.31</v>
+      </c>
+      <c r="BH21">
+        <v>3.15</v>
+      </c>
+      <c r="BI21">
+        <v>1.58</v>
+      </c>
+      <c r="BJ21">
+        <v>2.23</v>
+      </c>
+      <c r="BK21">
+        <v>2.07</v>
+      </c>
+      <c r="BL21">
+        <v>1.67</v>
+      </c>
+      <c r="BM21">
+        <v>2.75</v>
+      </c>
+      <c r="BN21">
+        <v>1.4</v>
+      </c>
+      <c r="BO21">
+        <v>3.84</v>
+      </c>
+      <c r="BP21">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7347777</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45381.375</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q22">
+        <v>1.73</v>
+      </c>
+      <c r="R22">
+        <v>2.63</v>
+      </c>
+      <c r="S22">
+        <v>8</v>
+      </c>
+      <c r="T22">
+        <v>1.27</v>
+      </c>
+      <c r="U22">
+        <v>3.45</v>
+      </c>
+      <c r="V22">
+        <v>2.29</v>
+      </c>
+      <c r="W22">
+        <v>1.56</v>
+      </c>
+      <c r="X22">
+        <v>4.95</v>
+      </c>
+      <c r="Y22">
+        <v>1.14</v>
+      </c>
+      <c r="Z22">
+        <v>1.27</v>
+      </c>
+      <c r="AA22">
+        <v>4.65</v>
+      </c>
+      <c r="AB22">
+        <v>6.7</v>
+      </c>
+      <c r="AC22">
+        <v>1.03</v>
+      </c>
+      <c r="AD22">
+        <v>10</v>
+      </c>
+      <c r="AE22">
+        <v>1.16</v>
+      </c>
+      <c r="AF22">
+        <v>4.75</v>
+      </c>
+      <c r="AG22">
+        <v>1.58</v>
+      </c>
+      <c r="AH22">
+        <v>2.3</v>
+      </c>
+      <c r="AI22">
+        <v>1.9</v>
+      </c>
+      <c r="AJ22">
+        <v>1.83</v>
+      </c>
+      <c r="AK22">
+        <v>1.01</v>
+      </c>
+      <c r="AL22">
+        <v>1.1</v>
+      </c>
+      <c r="AM22">
+        <v>3.5</v>
+      </c>
+      <c r="AN22">
+        <v>3</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>3</v>
+      </c>
+      <c r="AQ22">
+        <v>0.5</v>
+      </c>
+      <c r="AR22">
+        <v>2.37</v>
+      </c>
+      <c r="AS22">
+        <v>1.15</v>
+      </c>
+      <c r="AT22">
+        <v>3.52</v>
+      </c>
+      <c r="AU22">
+        <v>9</v>
+      </c>
+      <c r="AV22">
+        <v>6</v>
+      </c>
+      <c r="AW22">
+        <v>2</v>
+      </c>
+      <c r="AX22">
+        <v>6</v>
+      </c>
+      <c r="AY22">
+        <v>11</v>
+      </c>
+      <c r="AZ22">
+        <v>12</v>
+      </c>
+      <c r="BA22">
+        <v>7</v>
+      </c>
+      <c r="BB22">
+        <v>5</v>
+      </c>
+      <c r="BC22">
+        <v>12</v>
+      </c>
+      <c r="BD22">
+        <v>1.33</v>
+      </c>
+      <c r="BE22">
+        <v>9</v>
+      </c>
+      <c r="BF22">
+        <v>3.75</v>
+      </c>
+      <c r="BG22">
+        <v>1.32</v>
+      </c>
+      <c r="BH22">
+        <v>3.1</v>
+      </c>
+      <c r="BI22">
+        <v>1.6</v>
+      </c>
+      <c r="BJ22">
+        <v>2.2</v>
+      </c>
+      <c r="BK22">
+        <v>2.07</v>
+      </c>
+      <c r="BL22">
+        <v>1.67</v>
+      </c>
+      <c r="BM22">
+        <v>2.75</v>
+      </c>
+      <c r="BN22">
+        <v>1.4</v>
+      </c>
+      <c r="BO22">
+        <v>3.84</v>
+      </c>
+      <c r="BP22">
         <v>1.2</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,9 @@
     <t>['56', '89', '90+7']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -346,7 +349,13 @@
     <t>['74']</t>
   </si>
   <si>
-    <t>['84']</t>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['5', '30', '63']</t>
+  </si>
+  <si>
+    <t>['48', '74']</t>
   </si>
 </sst>
 </file>
@@ -708,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP22"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -967,7 +976,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1045,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>1.5</v>
@@ -1173,7 +1182,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1379,7 +1388,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1585,7 +1594,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1791,7 +1800,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2409,7 +2418,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3027,7 +3036,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3311,7 +3320,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>2.33</v>
@@ -3645,7 +3654,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4057,7 +4066,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4263,7 +4272,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4469,7 +4478,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4777,13 +4786,13 @@
         <v>3</v>
       </c>
       <c r="AX20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY20">
         <v>7</v>
       </c>
       <c r="AZ20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA20">
         <v>4</v>
@@ -5087,7 +5096,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="Q22">
         <v>1.73</v>
@@ -5244,6 +5253,624 @@
       </c>
       <c r="BP22">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7347778</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45382.1875</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>84</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
+        <v>90</v>
+      </c>
+      <c r="P23" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q23">
+        <v>3.25</v>
+      </c>
+      <c r="R23">
+        <v>2.2</v>
+      </c>
+      <c r="S23">
+        <v>3.25</v>
+      </c>
+      <c r="T23">
+        <v>1.4</v>
+      </c>
+      <c r="U23">
+        <v>2.75</v>
+      </c>
+      <c r="V23">
+        <v>2.75</v>
+      </c>
+      <c r="W23">
+        <v>1.4</v>
+      </c>
+      <c r="X23">
+        <v>8</v>
+      </c>
+      <c r="Y23">
+        <v>1.08</v>
+      </c>
+      <c r="Z23">
+        <v>2.6</v>
+      </c>
+      <c r="AA23">
+        <v>3.25</v>
+      </c>
+      <c r="AB23">
+        <v>2.45</v>
+      </c>
+      <c r="AC23">
+        <v>1.05</v>
+      </c>
+      <c r="AD23">
+        <v>8.5</v>
+      </c>
+      <c r="AE23">
+        <v>1.28</v>
+      </c>
+      <c r="AF23">
+        <v>3.5</v>
+      </c>
+      <c r="AG23">
+        <v>1.9</v>
+      </c>
+      <c r="AH23">
+        <v>1.85</v>
+      </c>
+      <c r="AI23">
+        <v>1.7</v>
+      </c>
+      <c r="AJ23">
+        <v>2.05</v>
+      </c>
+      <c r="AK23">
+        <v>1.47</v>
+      </c>
+      <c r="AL23">
+        <v>1.25</v>
+      </c>
+      <c r="AM23">
+        <v>1.47</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>1.45</v>
+      </c>
+      <c r="AT23">
+        <v>1.45</v>
+      </c>
+      <c r="AU23">
+        <v>4</v>
+      </c>
+      <c r="AV23">
+        <v>8</v>
+      </c>
+      <c r="AW23">
+        <v>5</v>
+      </c>
+      <c r="AX23">
+        <v>4</v>
+      </c>
+      <c r="AY23">
+        <v>9</v>
+      </c>
+      <c r="AZ23">
+        <v>12</v>
+      </c>
+      <c r="BA23">
+        <v>4</v>
+      </c>
+      <c r="BB23">
+        <v>4</v>
+      </c>
+      <c r="BC23">
+        <v>8</v>
+      </c>
+      <c r="BD23">
+        <v>2.05</v>
+      </c>
+      <c r="BE23">
+        <v>7.5</v>
+      </c>
+      <c r="BF23">
+        <v>2.05</v>
+      </c>
+      <c r="BG23">
+        <v>1.33</v>
+      </c>
+      <c r="BH23">
+        <v>3.05</v>
+      </c>
+      <c r="BI23">
+        <v>1.67</v>
+      </c>
+      <c r="BJ23">
+        <v>2.07</v>
+      </c>
+      <c r="BK23">
+        <v>2.13</v>
+      </c>
+      <c r="BL23">
+        <v>1.63</v>
+      </c>
+      <c r="BM23">
+        <v>2.9</v>
+      </c>
+      <c r="BN23">
+        <v>1.36</v>
+      </c>
+      <c r="BO23">
+        <v>3.6</v>
+      </c>
+      <c r="BP23">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7347779</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45382.35763888889</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>90</v>
+      </c>
+      <c r="P24" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>2.2</v>
+      </c>
+      <c r="S24">
+        <v>3.4</v>
+      </c>
+      <c r="T24">
+        <v>1.36</v>
+      </c>
+      <c r="U24">
+        <v>2.9</v>
+      </c>
+      <c r="V24">
+        <v>2.6</v>
+      </c>
+      <c r="W24">
+        <v>1.44</v>
+      </c>
+      <c r="X24">
+        <v>6.45</v>
+      </c>
+      <c r="Y24">
+        <v>1.09</v>
+      </c>
+      <c r="Z24">
+        <v>2.15</v>
+      </c>
+      <c r="AA24">
+        <v>3.3</v>
+      </c>
+      <c r="AB24">
+        <v>3</v>
+      </c>
+      <c r="AC24">
+        <v>1.05</v>
+      </c>
+      <c r="AD24">
+        <v>8.5</v>
+      </c>
+      <c r="AE24">
+        <v>1.25</v>
+      </c>
+      <c r="AF24">
+        <v>3.75</v>
+      </c>
+      <c r="AG24">
+        <v>1.9</v>
+      </c>
+      <c r="AH24">
+        <v>1.85</v>
+      </c>
+      <c r="AI24">
+        <v>1.65</v>
+      </c>
+      <c r="AJ24">
+        <v>2.15</v>
+      </c>
+      <c r="AK24">
+        <v>1.36</v>
+      </c>
+      <c r="AL24">
+        <v>1.25</v>
+      </c>
+      <c r="AM24">
+        <v>1.66</v>
+      </c>
+      <c r="AN24">
+        <v>2</v>
+      </c>
+      <c r="AO24">
+        <v>3</v>
+      </c>
+      <c r="AP24">
+        <v>1.33</v>
+      </c>
+      <c r="AQ24">
+        <v>3</v>
+      </c>
+      <c r="AR24">
+        <v>1.89</v>
+      </c>
+      <c r="AS24">
+        <v>2.18</v>
+      </c>
+      <c r="AT24">
+        <v>4.07</v>
+      </c>
+      <c r="AU24">
+        <v>5</v>
+      </c>
+      <c r="AV24">
+        <v>6</v>
+      </c>
+      <c r="AW24">
+        <v>7</v>
+      </c>
+      <c r="AX24">
+        <v>3</v>
+      </c>
+      <c r="AY24">
+        <v>12</v>
+      </c>
+      <c r="AZ24">
+        <v>9</v>
+      </c>
+      <c r="BA24">
+        <v>7</v>
+      </c>
+      <c r="BB24">
+        <v>2</v>
+      </c>
+      <c r="BC24">
+        <v>9</v>
+      </c>
+      <c r="BD24">
+        <v>1.57</v>
+      </c>
+      <c r="BE24">
+        <v>8</v>
+      </c>
+      <c r="BF24">
+        <v>2.75</v>
+      </c>
+      <c r="BG24">
+        <v>1.34</v>
+      </c>
+      <c r="BH24">
+        <v>3</v>
+      </c>
+      <c r="BI24">
+        <v>1.67</v>
+      </c>
+      <c r="BJ24">
+        <v>2.07</v>
+      </c>
+      <c r="BK24">
+        <v>2.13</v>
+      </c>
+      <c r="BL24">
+        <v>1.63</v>
+      </c>
+      <c r="BM24">
+        <v>2.85</v>
+      </c>
+      <c r="BN24">
+        <v>1.37</v>
+      </c>
+      <c r="BO24">
+        <v>3.4</v>
+      </c>
+      <c r="BP24">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7347780</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45382.375</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>99</v>
+      </c>
+      <c r="P25" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25">
+        <v>3.25</v>
+      </c>
+      <c r="R25">
+        <v>2.2</v>
+      </c>
+      <c r="S25">
+        <v>3.1</v>
+      </c>
+      <c r="T25">
+        <v>1.4</v>
+      </c>
+      <c r="U25">
+        <v>2.75</v>
+      </c>
+      <c r="V25">
+        <v>2.8</v>
+      </c>
+      <c r="W25">
+        <v>1.39</v>
+      </c>
+      <c r="X25">
+        <v>6.95</v>
+      </c>
+      <c r="Y25">
+        <v>1.07</v>
+      </c>
+      <c r="Z25">
+        <v>2.88</v>
+      </c>
+      <c r="AA25">
+        <v>3.4</v>
+      </c>
+      <c r="AB25">
+        <v>2.2</v>
+      </c>
+      <c r="AC25">
+        <v>1.05</v>
+      </c>
+      <c r="AD25">
+        <v>8.5</v>
+      </c>
+      <c r="AE25">
+        <v>1.3</v>
+      </c>
+      <c r="AF25">
+        <v>3.3</v>
+      </c>
+      <c r="AG25">
+        <v>1.84</v>
+      </c>
+      <c r="AH25">
+        <v>1.91</v>
+      </c>
+      <c r="AI25">
+        <v>1.72</v>
+      </c>
+      <c r="AJ25">
+        <v>2.05</v>
+      </c>
+      <c r="AK25">
+        <v>1.63</v>
+      </c>
+      <c r="AL25">
+        <v>1.25</v>
+      </c>
+      <c r="AM25">
+        <v>1.36</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>3</v>
+      </c>
+      <c r="AR25">
+        <v>0.67</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0.67</v>
+      </c>
+      <c r="AU25">
+        <v>4</v>
+      </c>
+      <c r="AV25">
+        <v>9</v>
+      </c>
+      <c r="AW25">
+        <v>5</v>
+      </c>
+      <c r="AX25">
+        <v>8</v>
+      </c>
+      <c r="AY25">
+        <v>9</v>
+      </c>
+      <c r="AZ25">
+        <v>17</v>
+      </c>
+      <c r="BA25">
+        <v>1</v>
+      </c>
+      <c r="BB25">
+        <v>9</v>
+      </c>
+      <c r="BC25">
+        <v>10</v>
+      </c>
+      <c r="BD25">
+        <v>2.3</v>
+      </c>
+      <c r="BE25">
+        <v>8</v>
+      </c>
+      <c r="BF25">
+        <v>1.8</v>
+      </c>
+      <c r="BG25">
+        <v>1.36</v>
+      </c>
+      <c r="BH25">
+        <v>2.9</v>
+      </c>
+      <c r="BI25">
+        <v>1.48</v>
+      </c>
+      <c r="BJ25">
+        <v>2.47</v>
+      </c>
+      <c r="BK25">
+        <v>2</v>
+      </c>
+      <c r="BL25">
+        <v>1.8</v>
+      </c>
+      <c r="BM25">
+        <v>2.47</v>
+      </c>
+      <c r="BN25">
+        <v>1.48</v>
+      </c>
+      <c r="BO25">
+        <v>3.2</v>
+      </c>
+      <c r="BP25">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -5401,13 +5401,13 @@
         <v>8</v>
       </c>
       <c r="AW23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX23">
         <v>4</v>
       </c>
       <c r="AY23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ23">
         <v>12</v>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="116">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -316,6 +316,9 @@
     <t>['50']</t>
   </si>
   <si>
+    <t>['74', '86']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -356,6 +359,9 @@
   </si>
   <si>
     <t>['48', '74']</t>
+  </si>
+  <si>
+    <t>['26', '61', '68']</t>
   </si>
 </sst>
 </file>
@@ -717,7 +723,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -976,7 +982,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1182,7 +1188,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1388,7 +1394,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1594,7 +1600,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1800,7 +1806,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2418,7 +2424,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3036,7 +3042,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3654,7 +3660,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4066,7 +4072,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4272,7 +4278,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4353,7 +4359,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -4478,7 +4484,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5302,7 +5308,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5508,7 +5514,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5714,7 +5720,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5871,6 +5877,212 @@
       </c>
       <c r="BP25">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7347781</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45386.35763888889</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" t="s">
+        <v>74</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>5</v>
+      </c>
+      <c r="O26" t="s">
+        <v>100</v>
+      </c>
+      <c r="P26" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q26">
+        <v>2.02</v>
+      </c>
+      <c r="R26">
+        <v>2.45</v>
+      </c>
+      <c r="S26">
+        <v>4.95</v>
+      </c>
+      <c r="T26">
+        <v>1.27</v>
+      </c>
+      <c r="U26">
+        <v>3.54</v>
+      </c>
+      <c r="V26">
+        <v>2.27</v>
+      </c>
+      <c r="W26">
+        <v>1.59</v>
+      </c>
+      <c r="X26">
+        <v>5.1</v>
+      </c>
+      <c r="Y26">
+        <v>1.14</v>
+      </c>
+      <c r="Z26">
+        <v>1.52</v>
+      </c>
+      <c r="AA26">
+        <v>4.25</v>
+      </c>
+      <c r="AB26">
+        <v>4.9</v>
+      </c>
+      <c r="AC26">
+        <v>1.03</v>
+      </c>
+      <c r="AD26">
+        <v>19.25</v>
+      </c>
+      <c r="AE26">
+        <v>1.14</v>
+      </c>
+      <c r="AF26">
+        <v>4.65</v>
+      </c>
+      <c r="AG26">
+        <v>1.49</v>
+      </c>
+      <c r="AH26">
+        <v>2.34</v>
+      </c>
+      <c r="AI26">
+        <v>1.61</v>
+      </c>
+      <c r="AJ26">
+        <v>2.17</v>
+      </c>
+      <c r="AK26">
+        <v>1.14</v>
+      </c>
+      <c r="AL26">
+        <v>1.19</v>
+      </c>
+      <c r="AM26">
+        <v>2.38</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>2</v>
+      </c>
+      <c r="AR26">
+        <v>0.87</v>
+      </c>
+      <c r="AS26">
+        <v>1.47</v>
+      </c>
+      <c r="AT26">
+        <v>2.34</v>
+      </c>
+      <c r="AU26">
+        <v>11</v>
+      </c>
+      <c r="AV26">
+        <v>4</v>
+      </c>
+      <c r="AW26">
+        <v>7</v>
+      </c>
+      <c r="AX26">
+        <v>2</v>
+      </c>
+      <c r="AY26">
+        <v>18</v>
+      </c>
+      <c r="AZ26">
+        <v>6</v>
+      </c>
+      <c r="BA26">
+        <v>8</v>
+      </c>
+      <c r="BB26">
+        <v>2</v>
+      </c>
+      <c r="BC26">
+        <v>10</v>
+      </c>
+      <c r="BD26">
+        <v>1.62</v>
+      </c>
+      <c r="BE26">
+        <v>8</v>
+      </c>
+      <c r="BF26">
+        <v>2.75</v>
+      </c>
+      <c r="BG26">
+        <v>1.31</v>
+      </c>
+      <c r="BH26">
+        <v>3.15</v>
+      </c>
+      <c r="BI26">
+        <v>1.6</v>
+      </c>
+      <c r="BJ26">
+        <v>2.2</v>
+      </c>
+      <c r="BK26">
+        <v>2.07</v>
+      </c>
+      <c r="BL26">
+        <v>1.67</v>
+      </c>
+      <c r="BM26">
+        <v>2.77</v>
+      </c>
+      <c r="BN26">
+        <v>1.39</v>
+      </c>
+      <c r="BO26">
+        <v>3.7</v>
+      </c>
+      <c r="BP26">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="123">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -319,6 +319,15 @@
     <t>['74', '86']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['27', '82']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -362,6 +371,18 @@
   </si>
   <si>
     <t>['26', '61', '68']</t>
+  </si>
+  <si>
+    <t>['25', '90+9']</t>
+  </si>
+  <si>
+    <t>['66', '84']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['10', '90+6']</t>
   </si>
 </sst>
 </file>
@@ -723,7 +744,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -982,7 +1003,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1188,7 +1209,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1394,7 +1415,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1600,7 +1621,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1806,7 +1827,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2299,7 +2320,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2424,7 +2445,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3042,7 +3063,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3120,10 +3141,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3660,7 +3681,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3738,7 +3759,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -4072,7 +4093,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4278,7 +4299,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4484,7 +4505,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5308,7 +5329,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5514,7 +5535,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5720,7 +5741,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5926,7 +5947,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6019,22 +6040,22 @@
         <v>2.34</v>
       </c>
       <c r="AU26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW26">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AX26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY26">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA26">
         <v>8</v>
@@ -6083,6 +6104,1036 @@
       </c>
       <c r="BP26">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7347782</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45387.1875</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>101</v>
+      </c>
+      <c r="P27" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q27">
+        <v>5.8</v>
+      </c>
+      <c r="R27">
+        <v>2.31</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>1.34</v>
+      </c>
+      <c r="U27">
+        <v>3.1</v>
+      </c>
+      <c r="V27">
+        <v>2.6</v>
+      </c>
+      <c r="W27">
+        <v>1.46</v>
+      </c>
+      <c r="X27">
+        <v>6.3</v>
+      </c>
+      <c r="Y27">
+        <v>1.1</v>
+      </c>
+      <c r="Z27">
+        <v>6.5</v>
+      </c>
+      <c r="AA27">
+        <v>4.5</v>
+      </c>
+      <c r="AB27">
+        <v>1.44</v>
+      </c>
+      <c r="AC27">
+        <v>1.01</v>
+      </c>
+      <c r="AD27">
+        <v>10.25</v>
+      </c>
+      <c r="AE27">
+        <v>1.22</v>
+      </c>
+      <c r="AF27">
+        <v>3.65</v>
+      </c>
+      <c r="AG27">
+        <v>1.66</v>
+      </c>
+      <c r="AH27">
+        <v>2.15</v>
+      </c>
+      <c r="AI27">
+        <v>1.86</v>
+      </c>
+      <c r="AJ27">
+        <v>1.84</v>
+      </c>
+      <c r="AK27">
+        <v>2.52</v>
+      </c>
+      <c r="AL27">
+        <v>1.2</v>
+      </c>
+      <c r="AM27">
+        <v>1.1</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>3</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27">
+        <v>3</v>
+      </c>
+      <c r="AR27">
+        <v>1.22</v>
+      </c>
+      <c r="AS27">
+        <v>1.68</v>
+      </c>
+      <c r="AT27">
+        <v>2.9</v>
+      </c>
+      <c r="AU27">
+        <v>-1</v>
+      </c>
+      <c r="AV27">
+        <v>-1</v>
+      </c>
+      <c r="AW27">
+        <v>-1</v>
+      </c>
+      <c r="AX27">
+        <v>-1</v>
+      </c>
+      <c r="AY27">
+        <v>-1</v>
+      </c>
+      <c r="AZ27">
+        <v>-1</v>
+      </c>
+      <c r="BA27">
+        <v>-1</v>
+      </c>
+      <c r="BB27">
+        <v>-1</v>
+      </c>
+      <c r="BC27">
+        <v>-1</v>
+      </c>
+      <c r="BD27">
+        <v>3.4</v>
+      </c>
+      <c r="BE27">
+        <v>8.5</v>
+      </c>
+      <c r="BF27">
+        <v>1.44</v>
+      </c>
+      <c r="BG27">
+        <v>1.41</v>
+      </c>
+      <c r="BH27">
+        <v>2.7</v>
+      </c>
+      <c r="BI27">
+        <v>1.8</v>
+      </c>
+      <c r="BJ27">
+        <v>1.9</v>
+      </c>
+      <c r="BK27">
+        <v>2.35</v>
+      </c>
+      <c r="BL27">
+        <v>1.52</v>
+      </c>
+      <c r="BM27">
+        <v>3.2</v>
+      </c>
+      <c r="BN27">
+        <v>1.3</v>
+      </c>
+      <c r="BO27">
+        <v>4.3</v>
+      </c>
+      <c r="BP27">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7347783</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45387.33333333334</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>90</v>
+      </c>
+      <c r="P28" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q28">
+        <v>2.88</v>
+      </c>
+      <c r="R28">
+        <v>2.1</v>
+      </c>
+      <c r="S28">
+        <v>3.75</v>
+      </c>
+      <c r="T28">
+        <v>1.4</v>
+      </c>
+      <c r="U28">
+        <v>2.75</v>
+      </c>
+      <c r="V28">
+        <v>3</v>
+      </c>
+      <c r="W28">
+        <v>1.36</v>
+      </c>
+      <c r="X28">
+        <v>8</v>
+      </c>
+      <c r="Y28">
+        <v>1.08</v>
+      </c>
+      <c r="Z28">
+        <v>2.12</v>
+      </c>
+      <c r="AA28">
+        <v>3.14</v>
+      </c>
+      <c r="AB28">
+        <v>3.14</v>
+      </c>
+      <c r="AC28">
+        <v>1.06</v>
+      </c>
+      <c r="AD28">
+        <v>9.5</v>
+      </c>
+      <c r="AE28">
+        <v>1.3</v>
+      </c>
+      <c r="AF28">
+        <v>3.4</v>
+      </c>
+      <c r="AG28">
+        <v>1.93</v>
+      </c>
+      <c r="AH28">
+        <v>1.75</v>
+      </c>
+      <c r="AI28">
+        <v>1.8</v>
+      </c>
+      <c r="AJ28">
+        <v>1.95</v>
+      </c>
+      <c r="AK28">
+        <v>1.33</v>
+      </c>
+      <c r="AL28">
+        <v>1.33</v>
+      </c>
+      <c r="AM28">
+        <v>1.66</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0.5</v>
+      </c>
+      <c r="AQ28">
+        <v>1.5</v>
+      </c>
+      <c r="AR28">
+        <v>2.4</v>
+      </c>
+      <c r="AS28">
+        <v>2.36</v>
+      </c>
+      <c r="AT28">
+        <v>4.76</v>
+      </c>
+      <c r="AU28">
+        <v>-1</v>
+      </c>
+      <c r="AV28">
+        <v>-1</v>
+      </c>
+      <c r="AW28">
+        <v>-1</v>
+      </c>
+      <c r="AX28">
+        <v>-1</v>
+      </c>
+      <c r="AY28">
+        <v>-1</v>
+      </c>
+      <c r="AZ28">
+        <v>-1</v>
+      </c>
+      <c r="BA28">
+        <v>-1</v>
+      </c>
+      <c r="BB28">
+        <v>-1</v>
+      </c>
+      <c r="BC28">
+        <v>-1</v>
+      </c>
+      <c r="BD28">
+        <v>1.73</v>
+      </c>
+      <c r="BE28">
+        <v>8</v>
+      </c>
+      <c r="BF28">
+        <v>2.4</v>
+      </c>
+      <c r="BG28">
+        <v>1.38</v>
+      </c>
+      <c r="BH28">
+        <v>2.9</v>
+      </c>
+      <c r="BI28">
+        <v>1.7</v>
+      </c>
+      <c r="BJ28">
+        <v>2.05</v>
+      </c>
+      <c r="BK28">
+        <v>2.1</v>
+      </c>
+      <c r="BL28">
+        <v>1.69</v>
+      </c>
+      <c r="BM28">
+        <v>2.7</v>
+      </c>
+      <c r="BN28">
+        <v>1.43</v>
+      </c>
+      <c r="BO28">
+        <v>3.7</v>
+      </c>
+      <c r="BP28">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7347784</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45387.35763888889</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>90</v>
+      </c>
+      <c r="P29" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+      <c r="R29">
+        <v>2.38</v>
+      </c>
+      <c r="S29">
+        <v>2.05</v>
+      </c>
+      <c r="T29">
+        <v>1.33</v>
+      </c>
+      <c r="U29">
+        <v>3.25</v>
+      </c>
+      <c r="V29">
+        <v>2.63</v>
+      </c>
+      <c r="W29">
+        <v>1.44</v>
+      </c>
+      <c r="X29">
+        <v>6.5</v>
+      </c>
+      <c r="Y29">
+        <v>1.11</v>
+      </c>
+      <c r="Z29">
+        <v>5</v>
+      </c>
+      <c r="AA29">
+        <v>4</v>
+      </c>
+      <c r="AB29">
+        <v>1.62</v>
+      </c>
+      <c r="AC29">
+        <v>1.04</v>
+      </c>
+      <c r="AD29">
+        <v>13</v>
+      </c>
+      <c r="AE29">
+        <v>1.22</v>
+      </c>
+      <c r="AF29">
+        <v>4</v>
+      </c>
+      <c r="AG29">
+        <v>1.83</v>
+      </c>
+      <c r="AH29">
+        <v>1.9</v>
+      </c>
+      <c r="AI29">
+        <v>1.91</v>
+      </c>
+      <c r="AJ29">
+        <v>1.91</v>
+      </c>
+      <c r="AK29">
+        <v>2.52</v>
+      </c>
+      <c r="AL29">
+        <v>1.21</v>
+      </c>
+      <c r="AM29">
+        <v>1.12</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <v>3</v>
+      </c>
+      <c r="AR29">
+        <v>1.72</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>1.72</v>
+      </c>
+      <c r="AU29">
+        <v>-1</v>
+      </c>
+      <c r="AV29">
+        <v>-1</v>
+      </c>
+      <c r="AW29">
+        <v>-1</v>
+      </c>
+      <c r="AX29">
+        <v>-1</v>
+      </c>
+      <c r="AY29">
+        <v>-1</v>
+      </c>
+      <c r="AZ29">
+        <v>-1</v>
+      </c>
+      <c r="BA29">
+        <v>-1</v>
+      </c>
+      <c r="BB29">
+        <v>-1</v>
+      </c>
+      <c r="BC29">
+        <v>-1</v>
+      </c>
+      <c r="BD29">
+        <v>3.2</v>
+      </c>
+      <c r="BE29">
+        <v>9</v>
+      </c>
+      <c r="BF29">
+        <v>1.4</v>
+      </c>
+      <c r="BG29">
+        <v>1.33</v>
+      </c>
+      <c r="BH29">
+        <v>2.93</v>
+      </c>
+      <c r="BI29">
+        <v>1.7</v>
+      </c>
+      <c r="BJ29">
+        <v>2.05</v>
+      </c>
+      <c r="BK29">
+        <v>2.06</v>
+      </c>
+      <c r="BL29">
+        <v>1.68</v>
+      </c>
+      <c r="BM29">
+        <v>2.71</v>
+      </c>
+      <c r="BN29">
+        <v>1.38</v>
+      </c>
+      <c r="BO29">
+        <v>3.74</v>
+      </c>
+      <c r="BP29">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7347785</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45387.35763888889</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q30">
+        <v>3.75</v>
+      </c>
+      <c r="R30">
+        <v>2.2</v>
+      </c>
+      <c r="S30">
+        <v>2.88</v>
+      </c>
+      <c r="T30">
+        <v>1.36</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>2.75</v>
+      </c>
+      <c r="W30">
+        <v>1.4</v>
+      </c>
+      <c r="X30">
+        <v>8</v>
+      </c>
+      <c r="Y30">
+        <v>1.08</v>
+      </c>
+      <c r="Z30">
+        <v>3</v>
+      </c>
+      <c r="AA30">
+        <v>3.4</v>
+      </c>
+      <c r="AB30">
+        <v>2.25</v>
+      </c>
+      <c r="AC30">
+        <v>1.05</v>
+      </c>
+      <c r="AD30">
+        <v>11</v>
+      </c>
+      <c r="AE30">
+        <v>1.25</v>
+      </c>
+      <c r="AF30">
+        <v>3.75</v>
+      </c>
+      <c r="AG30">
+        <v>1.9</v>
+      </c>
+      <c r="AH30">
+        <v>1.83</v>
+      </c>
+      <c r="AI30">
+        <v>1.7</v>
+      </c>
+      <c r="AJ30">
+        <v>2.05</v>
+      </c>
+      <c r="AK30">
+        <v>1.68</v>
+      </c>
+      <c r="AL30">
+        <v>1.31</v>
+      </c>
+      <c r="AM30">
+        <v>1.33</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>1</v>
+      </c>
+      <c r="AQ30">
+        <v>1</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>1.68</v>
+      </c>
+      <c r="AT30">
+        <v>1.68</v>
+      </c>
+      <c r="AU30">
+        <v>-1</v>
+      </c>
+      <c r="AV30">
+        <v>-1</v>
+      </c>
+      <c r="AW30">
+        <v>-1</v>
+      </c>
+      <c r="AX30">
+        <v>-1</v>
+      </c>
+      <c r="AY30">
+        <v>-1</v>
+      </c>
+      <c r="AZ30">
+        <v>-1</v>
+      </c>
+      <c r="BA30">
+        <v>-1</v>
+      </c>
+      <c r="BB30">
+        <v>-1</v>
+      </c>
+      <c r="BC30">
+        <v>-1</v>
+      </c>
+      <c r="BD30">
+        <v>2.1</v>
+      </c>
+      <c r="BE30">
+        <v>7.5</v>
+      </c>
+      <c r="BF30">
+        <v>1.95</v>
+      </c>
+      <c r="BG30">
+        <v>1.38</v>
+      </c>
+      <c r="BH30">
+        <v>2.9</v>
+      </c>
+      <c r="BI30">
+        <v>1.7</v>
+      </c>
+      <c r="BJ30">
+        <v>2.05</v>
+      </c>
+      <c r="BK30">
+        <v>2.1</v>
+      </c>
+      <c r="BL30">
+        <v>1.69</v>
+      </c>
+      <c r="BM30">
+        <v>2.7</v>
+      </c>
+      <c r="BN30">
+        <v>1.43</v>
+      </c>
+      <c r="BO30">
+        <v>3.7</v>
+      </c>
+      <c r="BP30">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7347786</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45387.375</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>103</v>
+      </c>
+      <c r="P31" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q31">
+        <v>3.2</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>3.4</v>
+      </c>
+      <c r="T31">
+        <v>1.4</v>
+      </c>
+      <c r="U31">
+        <v>2.75</v>
+      </c>
+      <c r="V31">
+        <v>2.75</v>
+      </c>
+      <c r="W31">
+        <v>1.4</v>
+      </c>
+      <c r="X31">
+        <v>8</v>
+      </c>
+      <c r="Y31">
+        <v>1.08</v>
+      </c>
+      <c r="Z31">
+        <v>2.4</v>
+      </c>
+      <c r="AA31">
+        <v>3.4</v>
+      </c>
+      <c r="AB31">
+        <v>2.8</v>
+      </c>
+      <c r="AC31">
+        <v>1.05</v>
+      </c>
+      <c r="AD31">
+        <v>11</v>
+      </c>
+      <c r="AE31">
+        <v>1.29</v>
+      </c>
+      <c r="AF31">
+        <v>3.5</v>
+      </c>
+      <c r="AG31">
+        <v>1.87</v>
+      </c>
+      <c r="AH31">
+        <v>1.87</v>
+      </c>
+      <c r="AI31">
+        <v>1.7</v>
+      </c>
+      <c r="AJ31">
+        <v>2.05</v>
+      </c>
+      <c r="AK31">
+        <v>1.45</v>
+      </c>
+      <c r="AL31">
+        <v>1.31</v>
+      </c>
+      <c r="AM31">
+        <v>1.52</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>1.5</v>
+      </c>
+      <c r="AQ31">
+        <v>0.5</v>
+      </c>
+      <c r="AR31">
+        <v>1.04</v>
+      </c>
+      <c r="AS31">
+        <v>0.98</v>
+      </c>
+      <c r="AT31">
+        <v>2.02</v>
+      </c>
+      <c r="AU31">
+        <v>-1</v>
+      </c>
+      <c r="AV31">
+        <v>-1</v>
+      </c>
+      <c r="AW31">
+        <v>-1</v>
+      </c>
+      <c r="AX31">
+        <v>-1</v>
+      </c>
+      <c r="AY31">
+        <v>-1</v>
+      </c>
+      <c r="AZ31">
+        <v>-1</v>
+      </c>
+      <c r="BA31">
+        <v>-1</v>
+      </c>
+      <c r="BB31">
+        <v>-1</v>
+      </c>
+      <c r="BC31">
+        <v>-1</v>
+      </c>
+      <c r="BD31">
+        <v>1.8</v>
+      </c>
+      <c r="BE31">
+        <v>8</v>
+      </c>
+      <c r="BF31">
+        <v>2.38</v>
+      </c>
+      <c r="BG31">
+        <v>1.25</v>
+      </c>
+      <c r="BH31">
+        <v>3.42</v>
+      </c>
+      <c r="BI31">
+        <v>1.46</v>
+      </c>
+      <c r="BJ31">
+        <v>2.52</v>
+      </c>
+      <c r="BK31">
+        <v>1.88</v>
+      </c>
+      <c r="BL31">
+        <v>1.92</v>
+      </c>
+      <c r="BM31">
+        <v>2.37</v>
+      </c>
+      <c r="BN31">
+        <v>1.51</v>
+      </c>
+      <c r="BO31">
+        <v>3.2</v>
+      </c>
+      <c r="BP31">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -328,6 +328,9 @@
     <t>['71']</t>
   </si>
   <si>
+    <t>['90+2', '90+7']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -383,6 +386,12 @@
   </si>
   <si>
     <t>['10', '90+6']</t>
+  </si>
+  <si>
+    <t>['21', '51', '59']</t>
+  </si>
+  <si>
+    <t>['30', '66']</t>
   </si>
 </sst>
 </file>
@@ -744,7 +753,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1003,7 +1012,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1209,7 +1218,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1415,7 +1424,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1621,7 +1630,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1699,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ5">
         <v>0.5</v>
@@ -1827,7 +1836,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2317,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ8">
         <v>1.5</v>
@@ -2445,7 +2454,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2938,7 +2947,7 @@
         <v>3</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3063,7 +3072,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3553,7 +3562,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -3681,7 +3690,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3968,7 +3977,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>1.14</v>
@@ -4093,7 +4102,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4299,7 +4308,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4505,7 +4514,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5329,7 +5338,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5535,7 +5544,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5741,7 +5750,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5947,7 +5956,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6040,22 +6049,22 @@
         <v>2.34</v>
       </c>
       <c r="AU26">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW26">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AX26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY26">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AZ26">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA26">
         <v>8</v>
@@ -6153,7 +6162,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6246,31 +6255,31 @@
         <v>2.9</v>
       </c>
       <c r="AU27">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW27">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AY27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AZ27">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA27">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BC27">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD27">
         <v>3.4</v>
@@ -6359,7 +6368,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6452,31 +6461,31 @@
         <v>4.76</v>
       </c>
       <c r="AU28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AX28">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ28">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD28">
         <v>1.73</v>
@@ -6565,7 +6574,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6658,31 +6667,31 @@
         <v>1.72</v>
       </c>
       <c r="AU29">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AV29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW29">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA29">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BB29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD29">
         <v>3.2</v>
@@ -6771,7 +6780,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6864,31 +6873,31 @@
         <v>1.68</v>
       </c>
       <c r="AU30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AW30">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX30">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AY30">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ30">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="BA30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB30">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC30">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BD30">
         <v>2.1</v>
@@ -7070,31 +7079,31 @@
         <v>2.02</v>
       </c>
       <c r="AU31">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AV31">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY31">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AZ31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA31">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BB31">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BD31">
         <v>1.8</v>
@@ -7134,6 +7143,418 @@
       </c>
       <c r="BP31">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7347787</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45388.1875</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
+        <v>75</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>5</v>
+      </c>
+      <c r="O32" t="s">
+        <v>104</v>
+      </c>
+      <c r="P32" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q32">
+        <v>3</v>
+      </c>
+      <c r="R32">
+        <v>2.05</v>
+      </c>
+      <c r="S32">
+        <v>3.75</v>
+      </c>
+      <c r="T32">
+        <v>1.44</v>
+      </c>
+      <c r="U32">
+        <v>2.63</v>
+      </c>
+      <c r="V32">
+        <v>3.25</v>
+      </c>
+      <c r="W32">
+        <v>1.33</v>
+      </c>
+      <c r="X32">
+        <v>9</v>
+      </c>
+      <c r="Y32">
+        <v>1.07</v>
+      </c>
+      <c r="Z32">
+        <v>2.16</v>
+      </c>
+      <c r="AA32">
+        <v>3.23</v>
+      </c>
+      <c r="AB32">
+        <v>2.95</v>
+      </c>
+      <c r="AC32">
+        <v>1.07</v>
+      </c>
+      <c r="AD32">
+        <v>9</v>
+      </c>
+      <c r="AE32">
+        <v>1.36</v>
+      </c>
+      <c r="AF32">
+        <v>3</v>
+      </c>
+      <c r="AG32">
+        <v>2.1</v>
+      </c>
+      <c r="AH32">
+        <v>1.7</v>
+      </c>
+      <c r="AI32">
+        <v>1.91</v>
+      </c>
+      <c r="AJ32">
+        <v>1.91</v>
+      </c>
+      <c r="AK32">
+        <v>1.36</v>
+      </c>
+      <c r="AL32">
+        <v>1.31</v>
+      </c>
+      <c r="AM32">
+        <v>1.63</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0.5</v>
+      </c>
+      <c r="AQ32">
+        <v>1.5</v>
+      </c>
+      <c r="AR32">
+        <v>1.5</v>
+      </c>
+      <c r="AS32">
+        <v>1.18</v>
+      </c>
+      <c r="AT32">
+        <v>2.68</v>
+      </c>
+      <c r="AU32">
+        <v>5</v>
+      </c>
+      <c r="AV32">
+        <v>7</v>
+      </c>
+      <c r="AW32">
+        <v>5</v>
+      </c>
+      <c r="AX32">
+        <v>10</v>
+      </c>
+      <c r="AY32">
+        <v>10</v>
+      </c>
+      <c r="AZ32">
+        <v>17</v>
+      </c>
+      <c r="BA32">
+        <v>4</v>
+      </c>
+      <c r="BB32">
+        <v>7</v>
+      </c>
+      <c r="BC32">
+        <v>11</v>
+      </c>
+      <c r="BD32">
+        <v>0</v>
+      </c>
+      <c r="BE32">
+        <v>0</v>
+      </c>
+      <c r="BF32">
+        <v>0</v>
+      </c>
+      <c r="BG32">
+        <v>0</v>
+      </c>
+      <c r="BH32">
+        <v>0</v>
+      </c>
+      <c r="BI32">
+        <v>0</v>
+      </c>
+      <c r="BJ32">
+        <v>0</v>
+      </c>
+      <c r="BK32">
+        <v>0</v>
+      </c>
+      <c r="BL32">
+        <v>0</v>
+      </c>
+      <c r="BM32">
+        <v>0</v>
+      </c>
+      <c r="BN32">
+        <v>0</v>
+      </c>
+      <c r="BO32">
+        <v>0</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7347788</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45388.35763888889</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" t="s">
+        <v>71</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>99</v>
+      </c>
+      <c r="P33" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q33">
+        <v>1.73</v>
+      </c>
+      <c r="R33">
+        <v>2.75</v>
+      </c>
+      <c r="S33">
+        <v>8</v>
+      </c>
+      <c r="T33">
+        <v>1.25</v>
+      </c>
+      <c r="U33">
+        <v>3.75</v>
+      </c>
+      <c r="V33">
+        <v>2.25</v>
+      </c>
+      <c r="W33">
+        <v>1.57</v>
+      </c>
+      <c r="X33">
+        <v>5.5</v>
+      </c>
+      <c r="Y33">
+        <v>1.14</v>
+      </c>
+      <c r="Z33">
+        <v>1.44</v>
+      </c>
+      <c r="AA33">
+        <v>4.5</v>
+      </c>
+      <c r="AB33">
+        <v>6.5</v>
+      </c>
+      <c r="AC33">
+        <v>1.02</v>
+      </c>
+      <c r="AD33">
+        <v>17</v>
+      </c>
+      <c r="AE33">
+        <v>1.17</v>
+      </c>
+      <c r="AF33">
+        <v>5</v>
+      </c>
+      <c r="AG33">
+        <v>1.66</v>
+      </c>
+      <c r="AH33">
+        <v>2.15</v>
+      </c>
+      <c r="AI33">
+        <v>1.95</v>
+      </c>
+      <c r="AJ33">
+        <v>1.8</v>
+      </c>
+      <c r="AK33">
+        <v>1.07</v>
+      </c>
+      <c r="AL33">
+        <v>1.13</v>
+      </c>
+      <c r="AM33">
+        <v>3.48</v>
+      </c>
+      <c r="AN33">
+        <v>2</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>1.33</v>
+      </c>
+      <c r="AQ33">
+        <v>1.5</v>
+      </c>
+      <c r="AR33">
+        <v>0.79</v>
+      </c>
+      <c r="AS33">
+        <v>0.82</v>
+      </c>
+      <c r="AT33">
+        <v>1.61</v>
+      </c>
+      <c r="AU33">
+        <v>10</v>
+      </c>
+      <c r="AV33">
+        <v>6</v>
+      </c>
+      <c r="AW33">
+        <v>6</v>
+      </c>
+      <c r="AX33">
+        <v>7</v>
+      </c>
+      <c r="AY33">
+        <v>16</v>
+      </c>
+      <c r="AZ33">
+        <v>13</v>
+      </c>
+      <c r="BA33">
+        <v>14</v>
+      </c>
+      <c r="BB33">
+        <v>5</v>
+      </c>
+      <c r="BC33">
+        <v>19</v>
+      </c>
+      <c r="BD33">
+        <v>1.29</v>
+      </c>
+      <c r="BE33">
+        <v>10</v>
+      </c>
+      <c r="BF33">
+        <v>4</v>
+      </c>
+      <c r="BG33">
+        <v>1.36</v>
+      </c>
+      <c r="BH33">
+        <v>2.79</v>
+      </c>
+      <c r="BI33">
+        <v>1.67</v>
+      </c>
+      <c r="BJ33">
+        <v>2.08</v>
+      </c>
+      <c r="BK33">
+        <v>2.05</v>
+      </c>
+      <c r="BL33">
+        <v>1.7</v>
+      </c>
+      <c r="BM33">
+        <v>2.79</v>
+      </c>
+      <c r="BN33">
+        <v>1.36</v>
+      </c>
+      <c r="BO33">
+        <v>3.98</v>
+      </c>
+      <c r="BP33">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -391,7 +391,7 @@
     <t>['21', '51', '59']</t>
   </si>
   <si>
-    <t>['30', '66']</t>
+    <t>['30', '67']</t>
   </si>
 </sst>
 </file>
@@ -7494,7 +7494,7 @@
         <v>10</v>
       </c>
       <c r="AV33">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW33">
         <v>6</v>
@@ -7506,7 +7506,7 @@
         <v>16</v>
       </c>
       <c r="AZ33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA33">
         <v>14</v>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="133">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,15 @@
     <t>['90+2', '90+7']</t>
   </si>
   <si>
+    <t>['63', '90+1']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['25', '44', '63', '67']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -392,6 +401,18 @@
   </si>
   <si>
     <t>['30', '67']</t>
+  </si>
+  <si>
+    <t>['13', '45+2', '53']</t>
+  </si>
+  <si>
+    <t>['80', '88']</t>
+  </si>
+  <si>
+    <t>['24', '66']</t>
+  </si>
+  <si>
+    <t>['54']</t>
   </si>
 </sst>
 </file>
@@ -753,7 +774,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP33"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1012,7 +1033,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1090,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
         <v>1.5</v>
@@ -1218,7 +1239,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1299,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1424,7 +1445,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1505,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1630,7 +1651,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1836,7 +1857,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2329,7 +2350,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2454,7 +2475,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3072,7 +3093,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3356,7 +3377,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ13">
         <v>2.33</v>
@@ -3565,7 +3586,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR14">
         <v>0.7</v>
@@ -3690,7 +3711,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3768,10 +3789,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4102,7 +4123,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4308,7 +4329,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4514,7 +4535,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5213,7 +5234,7 @@
         <v>3</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR22">
         <v>2.37</v>
@@ -5338,7 +5359,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5544,7 +5565,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5622,7 +5643,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>3</v>
@@ -5750,7 +5771,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5956,7 +5977,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6162,7 +6183,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6368,7 +6389,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6449,7 +6470,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -6574,7 +6595,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6780,7 +6801,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6858,10 +6879,10 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7064,7 +7085,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>0.5</v>
@@ -7192,7 +7213,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7398,7 +7419,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7555,6 +7576,830 @@
       </c>
       <c r="BP33">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7347789</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45391.29166666666</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>90</v>
+      </c>
+      <c r="P34" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q34">
+        <v>6.4</v>
+      </c>
+      <c r="R34">
+        <v>2.3</v>
+      </c>
+      <c r="S34">
+        <v>1.97</v>
+      </c>
+      <c r="T34">
+        <v>1.36</v>
+      </c>
+      <c r="U34">
+        <v>3.05</v>
+      </c>
+      <c r="V34">
+        <v>2.6</v>
+      </c>
+      <c r="W34">
+        <v>1.45</v>
+      </c>
+      <c r="X34">
+        <v>5.95</v>
+      </c>
+      <c r="Y34">
+        <v>1.1</v>
+      </c>
+      <c r="Z34">
+        <v>6.4</v>
+      </c>
+      <c r="AA34">
+        <v>4.25</v>
+      </c>
+      <c r="AB34">
+        <v>1.41</v>
+      </c>
+      <c r="AC34">
+        <v>1.01</v>
+      </c>
+      <c r="AD34">
+        <v>14.5</v>
+      </c>
+      <c r="AE34">
+        <v>1.25</v>
+      </c>
+      <c r="AF34">
+        <v>3.9</v>
+      </c>
+      <c r="AG34">
+        <v>1.7</v>
+      </c>
+      <c r="AH34">
+        <v>1.95</v>
+      </c>
+      <c r="AI34">
+        <v>1.88</v>
+      </c>
+      <c r="AJ34">
+        <v>1.83</v>
+      </c>
+      <c r="AK34">
+        <v>2.5</v>
+      </c>
+      <c r="AL34">
+        <v>1.22</v>
+      </c>
+      <c r="AM34">
+        <v>1.14</v>
+      </c>
+      <c r="AN34">
+        <v>1.5</v>
+      </c>
+      <c r="AO34">
+        <v>1</v>
+      </c>
+      <c r="AP34">
+        <v>1</v>
+      </c>
+      <c r="AQ34">
+        <v>1.67</v>
+      </c>
+      <c r="AR34">
+        <v>1</v>
+      </c>
+      <c r="AS34">
+        <v>2.02</v>
+      </c>
+      <c r="AT34">
+        <v>3.02</v>
+      </c>
+      <c r="AU34">
+        <v>3</v>
+      </c>
+      <c r="AV34">
+        <v>5</v>
+      </c>
+      <c r="AW34">
+        <v>4</v>
+      </c>
+      <c r="AX34">
+        <v>5</v>
+      </c>
+      <c r="AY34">
+        <v>7</v>
+      </c>
+      <c r="AZ34">
+        <v>10</v>
+      </c>
+      <c r="BA34">
+        <v>3</v>
+      </c>
+      <c r="BB34">
+        <v>7</v>
+      </c>
+      <c r="BC34">
+        <v>10</v>
+      </c>
+      <c r="BD34">
+        <v>5.19</v>
+      </c>
+      <c r="BE34">
+        <v>9.35</v>
+      </c>
+      <c r="BF34">
+        <v>1.33</v>
+      </c>
+      <c r="BG34">
+        <v>1.33</v>
+      </c>
+      <c r="BH34">
+        <v>3.32</v>
+      </c>
+      <c r="BI34">
+        <v>1.59</v>
+      </c>
+      <c r="BJ34">
+        <v>2.36</v>
+      </c>
+      <c r="BK34">
+        <v>1.96</v>
+      </c>
+      <c r="BL34">
+        <v>1.84</v>
+      </c>
+      <c r="BM34">
+        <v>2.53</v>
+      </c>
+      <c r="BN34">
+        <v>1.52</v>
+      </c>
+      <c r="BO34">
+        <v>3.49</v>
+      </c>
+      <c r="BP34">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7347790</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45391.35763888889</v>
+      </c>
+      <c r="F35">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>70</v>
+      </c>
+      <c r="H35" t="s">
+        <v>80</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35" t="s">
+        <v>105</v>
+      </c>
+      <c r="P35" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q35">
+        <v>1.96</v>
+      </c>
+      <c r="R35">
+        <v>2.34</v>
+      </c>
+      <c r="S35">
+        <v>5.2</v>
+      </c>
+      <c r="T35">
+        <v>1.35</v>
+      </c>
+      <c r="U35">
+        <v>3.05</v>
+      </c>
+      <c r="V35">
+        <v>2.58</v>
+      </c>
+      <c r="W35">
+        <v>1.46</v>
+      </c>
+      <c r="X35">
+        <v>5.95</v>
+      </c>
+      <c r="Y35">
+        <v>1.1</v>
+      </c>
+      <c r="Z35">
+        <v>1.36</v>
+      </c>
+      <c r="AA35">
+        <v>4.4</v>
+      </c>
+      <c r="AB35">
+        <v>7.3</v>
+      </c>
+      <c r="AC35">
+        <v>1.01</v>
+      </c>
+      <c r="AD35">
+        <v>15</v>
+      </c>
+      <c r="AE35">
+        <v>1.24</v>
+      </c>
+      <c r="AF35">
+        <v>3.95</v>
+      </c>
+      <c r="AG35">
+        <v>1.67</v>
+      </c>
+      <c r="AH35">
+        <v>1.99</v>
+      </c>
+      <c r="AI35">
+        <v>1.95</v>
+      </c>
+      <c r="AJ35">
+        <v>1.77</v>
+      </c>
+      <c r="AK35">
+        <v>1.11</v>
+      </c>
+      <c r="AL35">
+        <v>1.22</v>
+      </c>
+      <c r="AM35">
+        <v>2.86</v>
+      </c>
+      <c r="AN35">
+        <v>1.33</v>
+      </c>
+      <c r="AO35">
+        <v>0.5</v>
+      </c>
+      <c r="AP35">
+        <v>1.25</v>
+      </c>
+      <c r="AQ35">
+        <v>0.67</v>
+      </c>
+      <c r="AR35">
+        <v>1.8</v>
+      </c>
+      <c r="AS35">
+        <v>1.26</v>
+      </c>
+      <c r="AT35">
+        <v>3.06</v>
+      </c>
+      <c r="AU35">
+        <v>6</v>
+      </c>
+      <c r="AV35">
+        <v>3</v>
+      </c>
+      <c r="AW35">
+        <v>11</v>
+      </c>
+      <c r="AX35">
+        <v>2</v>
+      </c>
+      <c r="AY35">
+        <v>17</v>
+      </c>
+      <c r="AZ35">
+        <v>5</v>
+      </c>
+      <c r="BA35">
+        <v>7</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
+        <v>10</v>
+      </c>
+      <c r="BD35">
+        <v>1.27</v>
+      </c>
+      <c r="BE35">
+        <v>9.85</v>
+      </c>
+      <c r="BF35">
+        <v>6</v>
+      </c>
+      <c r="BG35">
+        <v>1.39</v>
+      </c>
+      <c r="BH35">
+        <v>2.98</v>
+      </c>
+      <c r="BI35">
+        <v>1.69</v>
+      </c>
+      <c r="BJ35">
+        <v>2.17</v>
+      </c>
+      <c r="BK35">
+        <v>2.11</v>
+      </c>
+      <c r="BL35">
+        <v>1.73</v>
+      </c>
+      <c r="BM35">
+        <v>2.8</v>
+      </c>
+      <c r="BN35">
+        <v>1.44</v>
+      </c>
+      <c r="BO35">
+        <v>3.96</v>
+      </c>
+      <c r="BP35">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7347791</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45391.35763888889</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" t="s">
+        <v>82</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>106</v>
+      </c>
+      <c r="P36" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q36">
+        <v>1.98</v>
+      </c>
+      <c r="R36">
+        <v>2.22</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>1.42</v>
+      </c>
+      <c r="U36">
+        <v>2.74</v>
+      </c>
+      <c r="V36">
+        <v>2.92</v>
+      </c>
+      <c r="W36">
+        <v>1.38</v>
+      </c>
+      <c r="X36">
+        <v>7.4</v>
+      </c>
+      <c r="Y36">
+        <v>1.06</v>
+      </c>
+      <c r="Z36">
+        <v>1.38</v>
+      </c>
+      <c r="AA36">
+        <v>4.4</v>
+      </c>
+      <c r="AB36">
+        <v>7.5</v>
+      </c>
+      <c r="AC36">
+        <v>1.06</v>
+      </c>
+      <c r="AD36">
+        <v>10</v>
+      </c>
+      <c r="AE36">
+        <v>1.31</v>
+      </c>
+      <c r="AF36">
+        <v>3.3</v>
+      </c>
+      <c r="AG36">
+        <v>1.95</v>
+      </c>
+      <c r="AH36">
+        <v>1.73</v>
+      </c>
+      <c r="AI36">
+        <v>2.2</v>
+      </c>
+      <c r="AJ36">
+        <v>1.6</v>
+      </c>
+      <c r="AK36">
+        <v>1.09</v>
+      </c>
+      <c r="AL36">
+        <v>1.23</v>
+      </c>
+      <c r="AM36">
+        <v>2.94</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>1.5</v>
+      </c>
+      <c r="AP36">
+        <v>0.5</v>
+      </c>
+      <c r="AQ36">
+        <v>2</v>
+      </c>
+      <c r="AR36">
+        <v>1.16</v>
+      </c>
+      <c r="AS36">
+        <v>2.05</v>
+      </c>
+      <c r="AT36">
+        <v>3.21</v>
+      </c>
+      <c r="AU36">
+        <v>6</v>
+      </c>
+      <c r="AV36">
+        <v>4</v>
+      </c>
+      <c r="AW36">
+        <v>3</v>
+      </c>
+      <c r="AX36">
+        <v>1</v>
+      </c>
+      <c r="AY36">
+        <v>9</v>
+      </c>
+      <c r="AZ36">
+        <v>5</v>
+      </c>
+      <c r="BA36">
+        <v>10</v>
+      </c>
+      <c r="BB36">
+        <v>1</v>
+      </c>
+      <c r="BC36">
+        <v>11</v>
+      </c>
+      <c r="BD36">
+        <v>1.25</v>
+      </c>
+      <c r="BE36">
+        <v>10.1</v>
+      </c>
+      <c r="BF36">
+        <v>6.35</v>
+      </c>
+      <c r="BG36">
+        <v>1.4</v>
+      </c>
+      <c r="BH36">
+        <v>2.97</v>
+      </c>
+      <c r="BI36">
+        <v>1.69</v>
+      </c>
+      <c r="BJ36">
+        <v>2.17</v>
+      </c>
+      <c r="BK36">
+        <v>2.11</v>
+      </c>
+      <c r="BL36">
+        <v>1.73</v>
+      </c>
+      <c r="BM36">
+        <v>2.8</v>
+      </c>
+      <c r="BN36">
+        <v>1.44</v>
+      </c>
+      <c r="BO36">
+        <v>3.98</v>
+      </c>
+      <c r="BP36">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7347792</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45391.375</v>
+      </c>
+      <c r="F37">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s">
+        <v>83</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>5</v>
+      </c>
+      <c r="O37" t="s">
+        <v>107</v>
+      </c>
+      <c r="P37" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q37">
+        <v>2.1</v>
+      </c>
+      <c r="R37">
+        <v>2.25</v>
+      </c>
+      <c r="S37">
+        <v>5</v>
+      </c>
+      <c r="T37">
+        <v>1.33</v>
+      </c>
+      <c r="U37">
+        <v>3</v>
+      </c>
+      <c r="V37">
+        <v>2.55</v>
+      </c>
+      <c r="W37">
+        <v>1.45</v>
+      </c>
+      <c r="X37">
+        <v>6.25</v>
+      </c>
+      <c r="Y37">
+        <v>1.1</v>
+      </c>
+      <c r="Z37">
+        <v>1.68</v>
+      </c>
+      <c r="AA37">
+        <v>3.6</v>
+      </c>
+      <c r="AB37">
+        <v>4.4</v>
+      </c>
+      <c r="AC37">
+        <v>1.04</v>
+      </c>
+      <c r="AD37">
+        <v>9</v>
+      </c>
+      <c r="AE37">
+        <v>1.25</v>
+      </c>
+      <c r="AF37">
+        <v>3.8</v>
+      </c>
+      <c r="AG37">
+        <v>1.72</v>
+      </c>
+      <c r="AH37">
+        <v>1.93</v>
+      </c>
+      <c r="AI37">
+        <v>1.77</v>
+      </c>
+      <c r="AJ37">
+        <v>1.85</v>
+      </c>
+      <c r="AK37">
+        <v>1.11</v>
+      </c>
+      <c r="AL37">
+        <v>1.18</v>
+      </c>
+      <c r="AM37">
+        <v>2.3</v>
+      </c>
+      <c r="AN37">
+        <v>3</v>
+      </c>
+      <c r="AO37">
+        <v>1.5</v>
+      </c>
+      <c r="AP37">
+        <v>3</v>
+      </c>
+      <c r="AQ37">
+        <v>1</v>
+      </c>
+      <c r="AR37">
+        <v>2.37</v>
+      </c>
+      <c r="AS37">
+        <v>1.42</v>
+      </c>
+      <c r="AT37">
+        <v>3.79</v>
+      </c>
+      <c r="AU37">
+        <v>14</v>
+      </c>
+      <c r="AV37">
+        <v>2</v>
+      </c>
+      <c r="AW37">
+        <v>6</v>
+      </c>
+      <c r="AX37">
+        <v>5</v>
+      </c>
+      <c r="AY37">
+        <v>20</v>
+      </c>
+      <c r="AZ37">
+        <v>7</v>
+      </c>
+      <c r="BA37">
+        <v>11</v>
+      </c>
+      <c r="BB37">
+        <v>3</v>
+      </c>
+      <c r="BC37">
+        <v>14</v>
+      </c>
+      <c r="BD37">
+        <v>1.56</v>
+      </c>
+      <c r="BE37">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF37">
+        <v>2.86</v>
+      </c>
+      <c r="BG37">
+        <v>1.33</v>
+      </c>
+      <c r="BH37">
+        <v>2.93</v>
+      </c>
+      <c r="BI37">
+        <v>1.61</v>
+      </c>
+      <c r="BJ37">
+        <v>2.12</v>
+      </c>
+      <c r="BK37">
+        <v>2.07</v>
+      </c>
+      <c r="BL37">
+        <v>1.67</v>
+      </c>
+      <c r="BM37">
+        <v>2.71</v>
+      </c>
+      <c r="BN37">
+        <v>1.38</v>
+      </c>
+      <c r="BO37">
+        <v>3.74</v>
+      </c>
+      <c r="BP37">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="136">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -337,7 +337,13 @@
     <t>['90+6']</t>
   </si>
   <si>
-    <t>['25', '44', '63', '67']</t>
+    <t>['25', '44', '62', '67']</t>
+  </si>
+  <si>
+    <t>['43', '47']</t>
+  </si>
+  <si>
+    <t>['24', '71', '77']</t>
   </si>
   <si>
     <t>['81', '90+3']</t>
@@ -413,6 +419,9 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['57', '85', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -774,7 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1033,7 +1042,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1114,7 +1123,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1239,7 +1248,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1317,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>0.67</v>
@@ -1445,7 +1454,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1651,7 +1660,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1857,7 +1866,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -1935,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>2.33</v>
@@ -2144,7 +2153,7 @@
         <v>3</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2475,7 +2484,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2553,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ9">
         <v>3</v>
@@ -2762,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="AQ10">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3093,7 +3102,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3711,7 +3720,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3995,7 +4004,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>1.5</v>
@@ -4123,7 +4132,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4329,7 +4338,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4535,7 +4544,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5025,10 +5034,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR21">
         <v>0.99</v>
@@ -5359,7 +5368,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5565,7 +5574,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5771,7 +5780,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5849,10 +5858,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ25">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -5977,7 +5986,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6183,7 +6192,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6389,7 +6398,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6595,7 +6604,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6801,7 +6810,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7213,7 +7222,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7419,7 +7428,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7625,7 +7634,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7831,7 +7840,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8037,7 +8046,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8243,7 +8252,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8400,6 +8409,830 @@
       </c>
       <c r="BP37">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7347793</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45392.33333333334</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>71</v>
+      </c>
+      <c r="H38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>3</v>
+      </c>
+      <c r="N38">
+        <v>4</v>
+      </c>
+      <c r="O38" t="s">
+        <v>87</v>
+      </c>
+      <c r="P38" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q38">
+        <v>3.25</v>
+      </c>
+      <c r="R38">
+        <v>2.2</v>
+      </c>
+      <c r="S38">
+        <v>3.1</v>
+      </c>
+      <c r="T38">
+        <v>1.36</v>
+      </c>
+      <c r="U38">
+        <v>3</v>
+      </c>
+      <c r="V38">
+        <v>2.75</v>
+      </c>
+      <c r="W38">
+        <v>1.4</v>
+      </c>
+      <c r="X38">
+        <v>7</v>
+      </c>
+      <c r="Y38">
+        <v>1.1</v>
+      </c>
+      <c r="Z38">
+        <v>2.69</v>
+      </c>
+      <c r="AA38">
+        <v>3.4</v>
+      </c>
+      <c r="AB38">
+        <v>2.25</v>
+      </c>
+      <c r="AC38">
+        <v>1.07</v>
+      </c>
+      <c r="AD38">
+        <v>13.5</v>
+      </c>
+      <c r="AE38">
+        <v>1.32</v>
+      </c>
+      <c r="AF38">
+        <v>3.9</v>
+      </c>
+      <c r="AG38">
+        <v>1.76</v>
+      </c>
+      <c r="AH38">
+        <v>1.91</v>
+      </c>
+      <c r="AI38">
+        <v>1.67</v>
+      </c>
+      <c r="AJ38">
+        <v>2.1</v>
+      </c>
+      <c r="AK38">
+        <v>1.71</v>
+      </c>
+      <c r="AL38">
+        <v>1.31</v>
+      </c>
+      <c r="AM38">
+        <v>1.34</v>
+      </c>
+      <c r="AN38">
+        <v>2</v>
+      </c>
+      <c r="AO38">
+        <v>3</v>
+      </c>
+      <c r="AP38">
+        <v>1.33</v>
+      </c>
+      <c r="AQ38">
+        <v>3</v>
+      </c>
+      <c r="AR38">
+        <v>1.05</v>
+      </c>
+      <c r="AS38">
+        <v>1.52</v>
+      </c>
+      <c r="AT38">
+        <v>2.57</v>
+      </c>
+      <c r="AU38">
+        <v>4</v>
+      </c>
+      <c r="AV38">
+        <v>6</v>
+      </c>
+      <c r="AW38">
+        <v>7</v>
+      </c>
+      <c r="AX38">
+        <v>5</v>
+      </c>
+      <c r="AY38">
+        <v>11</v>
+      </c>
+      <c r="AZ38">
+        <v>11</v>
+      </c>
+      <c r="BA38">
+        <v>5</v>
+      </c>
+      <c r="BB38">
+        <v>6</v>
+      </c>
+      <c r="BC38">
+        <v>11</v>
+      </c>
+      <c r="BD38">
+        <v>1.95</v>
+      </c>
+      <c r="BE38">
+        <v>7.5</v>
+      </c>
+      <c r="BF38">
+        <v>2.1</v>
+      </c>
+      <c r="BG38">
+        <v>1.5</v>
+      </c>
+      <c r="BH38">
+        <v>2.4</v>
+      </c>
+      <c r="BI38">
+        <v>1.85</v>
+      </c>
+      <c r="BJ38">
+        <v>1.85</v>
+      </c>
+      <c r="BK38">
+        <v>2.3</v>
+      </c>
+      <c r="BL38">
+        <v>1.55</v>
+      </c>
+      <c r="BM38">
+        <v>3</v>
+      </c>
+      <c r="BN38">
+        <v>1.33</v>
+      </c>
+      <c r="BO38">
+        <v>4</v>
+      </c>
+      <c r="BP38">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7347794</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45392.35763888889</v>
+      </c>
+      <c r="F39">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s">
+        <v>84</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
+      </c>
+      <c r="O39" t="s">
+        <v>108</v>
+      </c>
+      <c r="P39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q39">
+        <v>2.85</v>
+      </c>
+      <c r="R39">
+        <v>2.2</v>
+      </c>
+      <c r="S39">
+        <v>3.3</v>
+      </c>
+      <c r="T39">
+        <v>1.33</v>
+      </c>
+      <c r="U39">
+        <v>3.15</v>
+      </c>
+      <c r="V39">
+        <v>2.51</v>
+      </c>
+      <c r="W39">
+        <v>1.49</v>
+      </c>
+      <c r="X39">
+        <v>6</v>
+      </c>
+      <c r="Y39">
+        <v>1.11</v>
+      </c>
+      <c r="Z39">
+        <v>2.03</v>
+      </c>
+      <c r="AA39">
+        <v>3.41</v>
+      </c>
+      <c r="AB39">
+        <v>2.75</v>
+      </c>
+      <c r="AC39">
+        <v>1.04</v>
+      </c>
+      <c r="AD39">
+        <v>14.75</v>
+      </c>
+      <c r="AE39">
+        <v>1.23</v>
+      </c>
+      <c r="AF39">
+        <v>4.22</v>
+      </c>
+      <c r="AG39">
+        <v>1.68</v>
+      </c>
+      <c r="AH39">
+        <v>2.06</v>
+      </c>
+      <c r="AI39">
+        <v>1.59</v>
+      </c>
+      <c r="AJ39">
+        <v>2.21</v>
+      </c>
+      <c r="AK39">
+        <v>1.42</v>
+      </c>
+      <c r="AL39">
+        <v>1.3</v>
+      </c>
+      <c r="AM39">
+        <v>1.58</v>
+      </c>
+      <c r="AN39">
+        <v>1.5</v>
+      </c>
+      <c r="AO39">
+        <v>1.5</v>
+      </c>
+      <c r="AP39">
+        <v>2</v>
+      </c>
+      <c r="AQ39">
+        <v>1</v>
+      </c>
+      <c r="AR39">
+        <v>1.09</v>
+      </c>
+      <c r="AS39">
+        <v>0.98</v>
+      </c>
+      <c r="AT39">
+        <v>2.07</v>
+      </c>
+      <c r="AU39">
+        <v>3</v>
+      </c>
+      <c r="AV39">
+        <v>4</v>
+      </c>
+      <c r="AW39">
+        <v>4</v>
+      </c>
+      <c r="AX39">
+        <v>3</v>
+      </c>
+      <c r="AY39">
+        <v>7</v>
+      </c>
+      <c r="AZ39">
+        <v>7</v>
+      </c>
+      <c r="BA39">
+        <v>2</v>
+      </c>
+      <c r="BB39">
+        <v>4</v>
+      </c>
+      <c r="BC39">
+        <v>6</v>
+      </c>
+      <c r="BD39">
+        <v>1.67</v>
+      </c>
+      <c r="BE39">
+        <v>8.5</v>
+      </c>
+      <c r="BF39">
+        <v>2.45</v>
+      </c>
+      <c r="BG39">
+        <v>1.33</v>
+      </c>
+      <c r="BH39">
+        <v>3</v>
+      </c>
+      <c r="BI39">
+        <v>1.56</v>
+      </c>
+      <c r="BJ39">
+        <v>2.38</v>
+      </c>
+      <c r="BK39">
+        <v>1.93</v>
+      </c>
+      <c r="BL39">
+        <v>1.86</v>
+      </c>
+      <c r="BM39">
+        <v>2.46</v>
+      </c>
+      <c r="BN39">
+        <v>1.53</v>
+      </c>
+      <c r="BO39">
+        <v>3</v>
+      </c>
+      <c r="BP39">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7347795</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45392.35763888889</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>75</v>
+      </c>
+      <c r="H40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>109</v>
+      </c>
+      <c r="P40" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q40">
+        <v>2.36</v>
+      </c>
+      <c r="R40">
+        <v>2.22</v>
+      </c>
+      <c r="S40">
+        <v>4.33</v>
+      </c>
+      <c r="T40">
+        <v>1.35</v>
+      </c>
+      <c r="U40">
+        <v>3.04</v>
+      </c>
+      <c r="V40">
+        <v>2.6</v>
+      </c>
+      <c r="W40">
+        <v>1.46</v>
+      </c>
+      <c r="X40">
+        <v>6.35</v>
+      </c>
+      <c r="Y40">
+        <v>1.1</v>
+      </c>
+      <c r="Z40">
+        <v>1.81</v>
+      </c>
+      <c r="AA40">
+        <v>3.63</v>
+      </c>
+      <c r="AB40">
+        <v>3.54</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>10</v>
+      </c>
+      <c r="AE40">
+        <v>1.22</v>
+      </c>
+      <c r="AF40">
+        <v>3.65</v>
+      </c>
+      <c r="AG40">
+        <v>1.81</v>
+      </c>
+      <c r="AH40">
+        <v>2.02</v>
+      </c>
+      <c r="AI40">
+        <v>1.73</v>
+      </c>
+      <c r="AJ40">
+        <v>2.07</v>
+      </c>
+      <c r="AK40">
+        <v>1.22</v>
+      </c>
+      <c r="AL40">
+        <v>1.2</v>
+      </c>
+      <c r="AM40">
+        <v>1.8</v>
+      </c>
+      <c r="AN40">
+        <v>3</v>
+      </c>
+      <c r="AO40">
+        <v>3</v>
+      </c>
+      <c r="AP40">
+        <v>3</v>
+      </c>
+      <c r="AQ40">
+        <v>1.5</v>
+      </c>
+      <c r="AR40">
+        <v>1.36</v>
+      </c>
+      <c r="AS40">
+        <v>2.16</v>
+      </c>
+      <c r="AT40">
+        <v>3.52</v>
+      </c>
+      <c r="AU40">
+        <v>6</v>
+      </c>
+      <c r="AV40">
+        <v>4</v>
+      </c>
+      <c r="AW40">
+        <v>4</v>
+      </c>
+      <c r="AX40">
+        <v>6</v>
+      </c>
+      <c r="AY40">
+        <v>10</v>
+      </c>
+      <c r="AZ40">
+        <v>10</v>
+      </c>
+      <c r="BA40">
+        <v>6</v>
+      </c>
+      <c r="BB40">
+        <v>4</v>
+      </c>
+      <c r="BC40">
+        <v>10</v>
+      </c>
+      <c r="BD40">
+        <v>1.55</v>
+      </c>
+      <c r="BE40">
+        <v>9</v>
+      </c>
+      <c r="BF40">
+        <v>2.7</v>
+      </c>
+      <c r="BG40">
+        <v>1.29</v>
+      </c>
+      <c r="BH40">
+        <v>3.4</v>
+      </c>
+      <c r="BI40">
+        <v>1.52</v>
+      </c>
+      <c r="BJ40">
+        <v>2.45</v>
+      </c>
+      <c r="BK40">
+        <v>1.9</v>
+      </c>
+      <c r="BL40">
+        <v>1.9</v>
+      </c>
+      <c r="BM40">
+        <v>2.38</v>
+      </c>
+      <c r="BN40">
+        <v>1.55</v>
+      </c>
+      <c r="BO40">
+        <v>3.1</v>
+      </c>
+      <c r="BP40">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7347796</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45392.375</v>
+      </c>
+      <c r="F41">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41" t="s">
+        <v>90</v>
+      </c>
+      <c r="P41" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q41">
+        <v>2.6</v>
+      </c>
+      <c r="R41">
+        <v>2.1</v>
+      </c>
+      <c r="S41">
+        <v>3.85</v>
+      </c>
+      <c r="T41">
+        <v>1.4</v>
+      </c>
+      <c r="U41">
+        <v>2.75</v>
+      </c>
+      <c r="V41">
+        <v>2.88</v>
+      </c>
+      <c r="W41">
+        <v>1.36</v>
+      </c>
+      <c r="X41">
+        <v>7.3</v>
+      </c>
+      <c r="Y41">
+        <v>1.07</v>
+      </c>
+      <c r="Z41">
+        <v>2.08</v>
+      </c>
+      <c r="AA41">
+        <v>3.25</v>
+      </c>
+      <c r="AB41">
+        <v>2.73</v>
+      </c>
+      <c r="AC41">
+        <v>1.05</v>
+      </c>
+      <c r="AD41">
+        <v>8.5</v>
+      </c>
+      <c r="AE41">
+        <v>1.3</v>
+      </c>
+      <c r="AF41">
+        <v>3.35</v>
+      </c>
+      <c r="AG41">
+        <v>1.87</v>
+      </c>
+      <c r="AH41">
+        <v>1.73</v>
+      </c>
+      <c r="AI41">
+        <v>1.83</v>
+      </c>
+      <c r="AJ41">
+        <v>1.95</v>
+      </c>
+      <c r="AK41">
+        <v>1.28</v>
+      </c>
+      <c r="AL41">
+        <v>1.22</v>
+      </c>
+      <c r="AM41">
+        <v>1.77</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>0.33</v>
+      </c>
+      <c r="AQ41">
+        <v>0.33</v>
+      </c>
+      <c r="AR41">
+        <v>0.89</v>
+      </c>
+      <c r="AS41">
+        <v>1.39</v>
+      </c>
+      <c r="AT41">
+        <v>2.28</v>
+      </c>
+      <c r="AU41">
+        <v>4</v>
+      </c>
+      <c r="AV41">
+        <v>7</v>
+      </c>
+      <c r="AW41">
+        <v>8</v>
+      </c>
+      <c r="AX41">
+        <v>6</v>
+      </c>
+      <c r="AY41">
+        <v>12</v>
+      </c>
+      <c r="AZ41">
+        <v>13</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
+        <v>4</v>
+      </c>
+      <c r="BC41">
+        <v>9</v>
+      </c>
+      <c r="BD41">
+        <v>1.93</v>
+      </c>
+      <c r="BE41">
+        <v>8.6</v>
+      </c>
+      <c r="BF41">
+        <v>2.12</v>
+      </c>
+      <c r="BG41">
+        <v>1.29</v>
+      </c>
+      <c r="BH41">
+        <v>3.4</v>
+      </c>
+      <c r="BI41">
+        <v>1.52</v>
+      </c>
+      <c r="BJ41">
+        <v>2.44</v>
+      </c>
+      <c r="BK41">
+        <v>1.92</v>
+      </c>
+      <c r="BL41">
+        <v>1.88</v>
+      </c>
+      <c r="BM41">
+        <v>2.36</v>
+      </c>
+      <c r="BN41">
+        <v>1.55</v>
+      </c>
+      <c r="BO41">
+        <v>3.1</v>
+      </c>
+      <c r="BP41">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -343,7 +343,7 @@
     <t>['43', '47']</t>
   </si>
   <si>
-    <t>['24', '71', '77']</t>
+    <t>['23', '71', '77']</t>
   </si>
   <si>
     <t>['81', '90+3']</t>
@@ -9169,31 +9169,31 @@
         <v>2.28</v>
       </c>
       <c r="AU41">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV41">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AW41">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX41">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AY41">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="AZ41">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BA41">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BB41">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC41">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BD41">
         <v>1.93</v>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -9169,31 +9169,31 @@
         <v>2.28</v>
       </c>
       <c r="AU41">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV41">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW41">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX41">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY41">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ41">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA41">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB41">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC41">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD41">
         <v>1.93</v>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="140">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,12 @@
     <t>['23', '71', '77']</t>
   </si>
   <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -422,6 +428,12 @@
   </si>
   <si>
     <t>['57', '85', '90+4']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['5']</t>
   </si>
 </sst>
 </file>
@@ -783,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP41"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1042,7 +1054,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1248,7 +1260,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1454,7 +1466,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1660,7 +1672,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1741,7 +1753,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1866,7 +1878,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -1947,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2484,7 +2496,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2974,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11">
         <v>1.5</v>
@@ -3102,7 +3114,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3180,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ12">
         <v>0.5</v>
@@ -3389,7 +3401,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ13">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>2.48</v>
@@ -3720,7 +3732,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4132,7 +4144,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4338,7 +4350,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4544,7 +4556,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4625,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="AQ19">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4831,7 +4843,7 @@
         <v>3</v>
       </c>
       <c r="AQ20">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>1.66</v>
@@ -5368,7 +5380,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5574,7 +5586,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5780,7 +5792,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5986,7 +5998,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6192,7 +6204,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6398,7 +6410,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6476,7 +6488,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ28">
         <v>2</v>
@@ -6604,7 +6616,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6810,7 +6822,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7222,7 +7234,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7428,7 +7440,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7634,7 +7646,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7840,7 +7852,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8046,7 +8058,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8252,7 +8264,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8330,7 +8342,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -8458,7 +8470,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9233,6 +9245,418 @@
       </c>
       <c r="BP41">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7347797</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45395.1875</v>
+      </c>
+      <c r="F42">
+        <v>6</v>
+      </c>
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
+      <c r="H42" t="s">
+        <v>81</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
+      </c>
+      <c r="O42" t="s">
+        <v>110</v>
+      </c>
+      <c r="P42" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q42">
+        <v>2.6</v>
+      </c>
+      <c r="R42">
+        <v>2.1</v>
+      </c>
+      <c r="S42">
+        <v>4.5</v>
+      </c>
+      <c r="T42">
+        <v>1.44</v>
+      </c>
+      <c r="U42">
+        <v>2.63</v>
+      </c>
+      <c r="V42">
+        <v>3</v>
+      </c>
+      <c r="W42">
+        <v>1.36</v>
+      </c>
+      <c r="X42">
+        <v>9</v>
+      </c>
+      <c r="Y42">
+        <v>1.07</v>
+      </c>
+      <c r="Z42">
+        <v>1.83</v>
+      </c>
+      <c r="AA42">
+        <v>3.2</v>
+      </c>
+      <c r="AB42">
+        <v>4.6</v>
+      </c>
+      <c r="AC42">
+        <v>1.05</v>
+      </c>
+      <c r="AD42">
+        <v>8.5</v>
+      </c>
+      <c r="AE42">
+        <v>1.3</v>
+      </c>
+      <c r="AF42">
+        <v>3.25</v>
+      </c>
+      <c r="AG42">
+        <v>2.02</v>
+      </c>
+      <c r="AH42">
+        <v>1.74</v>
+      </c>
+      <c r="AI42">
+        <v>1.95</v>
+      </c>
+      <c r="AJ42">
+        <v>1.8</v>
+      </c>
+      <c r="AK42">
+        <v>1.25</v>
+      </c>
+      <c r="AL42">
+        <v>1.22</v>
+      </c>
+      <c r="AM42">
+        <v>1.85</v>
+      </c>
+      <c r="AN42">
+        <v>0.5</v>
+      </c>
+      <c r="AO42">
+        <v>0.5</v>
+      </c>
+      <c r="AP42">
+        <v>0.67</v>
+      </c>
+      <c r="AQ42">
+        <v>0.67</v>
+      </c>
+      <c r="AR42">
+        <v>1.84</v>
+      </c>
+      <c r="AS42">
+        <v>0.99</v>
+      </c>
+      <c r="AT42">
+        <v>2.83</v>
+      </c>
+      <c r="AU42">
+        <v>3</v>
+      </c>
+      <c r="AV42">
+        <v>4</v>
+      </c>
+      <c r="AW42">
+        <v>4</v>
+      </c>
+      <c r="AX42">
+        <v>9</v>
+      </c>
+      <c r="AY42">
+        <v>7</v>
+      </c>
+      <c r="AZ42">
+        <v>13</v>
+      </c>
+      <c r="BA42">
+        <v>6</v>
+      </c>
+      <c r="BB42">
+        <v>10</v>
+      </c>
+      <c r="BC42">
+        <v>16</v>
+      </c>
+      <c r="BD42">
+        <v>1.6</v>
+      </c>
+      <c r="BE42">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF42">
+        <v>2.74</v>
+      </c>
+      <c r="BG42">
+        <v>1.33</v>
+      </c>
+      <c r="BH42">
+        <v>2.93</v>
+      </c>
+      <c r="BI42">
+        <v>1.6</v>
+      </c>
+      <c r="BJ42">
+        <v>2.14</v>
+      </c>
+      <c r="BK42">
+        <v>2.04</v>
+      </c>
+      <c r="BL42">
+        <v>1.69</v>
+      </c>
+      <c r="BM42">
+        <v>2.67</v>
+      </c>
+      <c r="BN42">
+        <v>1.39</v>
+      </c>
+      <c r="BO42">
+        <v>3.74</v>
+      </c>
+      <c r="BP42">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7347798</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45395.35763888889</v>
+      </c>
+      <c r="F43">
+        <v>6</v>
+      </c>
+      <c r="G43" t="s">
+        <v>79</v>
+      </c>
+      <c r="H43" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>111</v>
+      </c>
+      <c r="P43" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q43">
+        <v>2.3</v>
+      </c>
+      <c r="R43">
+        <v>2.1</v>
+      </c>
+      <c r="S43">
+        <v>4.75</v>
+      </c>
+      <c r="T43">
+        <v>1.42</v>
+      </c>
+      <c r="U43">
+        <v>2.65</v>
+      </c>
+      <c r="V43">
+        <v>2.95</v>
+      </c>
+      <c r="W43">
+        <v>1.35</v>
+      </c>
+      <c r="X43">
+        <v>7.6</v>
+      </c>
+      <c r="Y43">
+        <v>1.07</v>
+      </c>
+      <c r="Z43">
+        <v>1.55</v>
+      </c>
+      <c r="AA43">
+        <v>3.8</v>
+      </c>
+      <c r="AB43">
+        <v>5.6</v>
+      </c>
+      <c r="AC43">
+        <v>1.05</v>
+      </c>
+      <c r="AD43">
+        <v>8.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.33</v>
+      </c>
+      <c r="AF43">
+        <v>3.1</v>
+      </c>
+      <c r="AG43">
+        <v>1.93</v>
+      </c>
+      <c r="AH43">
+        <v>1.82</v>
+      </c>
+      <c r="AI43">
+        <v>1.85</v>
+      </c>
+      <c r="AJ43">
+        <v>1.77</v>
+      </c>
+      <c r="AK43">
+        <v>1.18</v>
+      </c>
+      <c r="AL43">
+        <v>1.22</v>
+      </c>
+      <c r="AM43">
+        <v>2.05</v>
+      </c>
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>2.33</v>
+      </c>
+      <c r="AP43">
+        <v>2.33</v>
+      </c>
+      <c r="AQ43">
+        <v>2</v>
+      </c>
+      <c r="AR43">
+        <v>2.56</v>
+      </c>
+      <c r="AS43">
+        <v>1.3</v>
+      </c>
+      <c r="AT43">
+        <v>3.86</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>5</v>
+      </c>
+      <c r="AW43">
+        <v>6</v>
+      </c>
+      <c r="AX43">
+        <v>5</v>
+      </c>
+      <c r="AY43">
+        <v>9</v>
+      </c>
+      <c r="AZ43">
+        <v>10</v>
+      </c>
+      <c r="BA43">
+        <v>5</v>
+      </c>
+      <c r="BB43">
+        <v>7</v>
+      </c>
+      <c r="BC43">
+        <v>12</v>
+      </c>
+      <c r="BD43">
+        <v>1.67</v>
+      </c>
+      <c r="BE43">
+        <v>8.6</v>
+      </c>
+      <c r="BF43">
+        <v>2.56</v>
+      </c>
+      <c r="BG43">
+        <v>1.33</v>
+      </c>
+      <c r="BH43">
+        <v>3</v>
+      </c>
+      <c r="BI43">
+        <v>1.57</v>
+      </c>
+      <c r="BJ43">
+        <v>2.25</v>
+      </c>
+      <c r="BK43">
+        <v>1.91</v>
+      </c>
+      <c r="BL43">
+        <v>1.8</v>
+      </c>
+      <c r="BM43">
+        <v>2.4</v>
+      </c>
+      <c r="BN43">
+        <v>1.5</v>
+      </c>
+      <c r="BO43">
+        <v>3.2</v>
+      </c>
+      <c r="BP43">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="149">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,21 @@
     <t>['25']</t>
   </si>
   <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['6', '33', '54', '73']</t>
+  </si>
+  <si>
+    <t>['50', '62', '68']</t>
+  </si>
+  <si>
+    <t>['7', '82']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -434,6 +449,18 @@
   </si>
   <si>
     <t>['5']</t>
+  </si>
+  <si>
+    <t>['90+4', '90+18']</t>
+  </si>
+  <si>
+    <t>['12', '23', '29']</t>
+  </si>
+  <si>
+    <t>['3', '6']</t>
+  </si>
+  <si>
+    <t>['57']</t>
   </si>
 </sst>
 </file>
@@ -795,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,7 +1081,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1260,7 +1287,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1466,7 +1493,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1672,7 +1699,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1750,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ5">
         <v>0.67</v>
@@ -1878,7 +1905,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -1956,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2496,7 +2523,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2780,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -2989,7 +3016,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3114,7 +3141,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3195,7 +3222,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3732,7 +3759,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4016,10 +4043,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>1.14</v>
@@ -4144,7 +4171,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4222,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ17">
         <v>3</v>
@@ -4350,7 +4377,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4428,7 +4455,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ18">
         <v>2</v>
@@ -4556,7 +4583,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5380,7 +5407,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5586,7 +5613,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5792,7 +5819,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -5873,7 +5900,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>0.67</v>
@@ -5998,7 +6025,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6204,7 +6231,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6410,7 +6437,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6616,7 +6643,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6694,10 +6721,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR29">
         <v>1.72</v>
@@ -6822,7 +6849,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7109,7 +7136,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7234,7 +7261,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7312,10 +7339,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>1.5</v>
@@ -7440,7 +7467,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7521,7 +7548,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ33">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>0.79</v>
@@ -7646,7 +7673,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7852,7 +7879,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8058,7 +8085,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8264,7 +8291,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8470,7 +8497,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8754,7 +8781,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -8963,7 +8990,7 @@
         <v>3</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.36</v>
@@ -9294,7 +9321,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9500,7 +9527,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9599,13 +9626,13 @@
         <v>5</v>
       </c>
       <c r="AW43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX43">
         <v>5</v>
       </c>
       <c r="AY43">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ43">
         <v>10</v>
@@ -9657,6 +9684,1242 @@
       </c>
       <c r="BP43">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7347799</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45396.1875</v>
+      </c>
+      <c r="F44">
+        <v>6</v>
+      </c>
+      <c r="G44" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44" t="s">
+        <v>112</v>
+      </c>
+      <c r="P44" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q44">
+        <v>4.75</v>
+      </c>
+      <c r="R44">
+        <v>2.3</v>
+      </c>
+      <c r="S44">
+        <v>2.25</v>
+      </c>
+      <c r="T44">
+        <v>1.33</v>
+      </c>
+      <c r="U44">
+        <v>3.25</v>
+      </c>
+      <c r="V44">
+        <v>2.63</v>
+      </c>
+      <c r="W44">
+        <v>1.44</v>
+      </c>
+      <c r="X44">
+        <v>6.5</v>
+      </c>
+      <c r="Y44">
+        <v>1.11</v>
+      </c>
+      <c r="Z44">
+        <v>3.85</v>
+      </c>
+      <c r="AA44">
+        <v>3.9</v>
+      </c>
+      <c r="AB44">
+        <v>1.96</v>
+      </c>
+      <c r="AC44">
+        <v>1.04</v>
+      </c>
+      <c r="AD44">
+        <v>9</v>
+      </c>
+      <c r="AE44">
+        <v>1.22</v>
+      </c>
+      <c r="AF44">
+        <v>3.85</v>
+      </c>
+      <c r="AG44">
+        <v>1.84</v>
+      </c>
+      <c r="AH44">
+        <v>2.06</v>
+      </c>
+      <c r="AI44">
+        <v>1.75</v>
+      </c>
+      <c r="AJ44">
+        <v>2</v>
+      </c>
+      <c r="AK44">
+        <v>2.05</v>
+      </c>
+      <c r="AL44">
+        <v>1.2</v>
+      </c>
+      <c r="AM44">
+        <v>1.17</v>
+      </c>
+      <c r="AN44">
+        <v>0</v>
+      </c>
+      <c r="AO44">
+        <v>1.5</v>
+      </c>
+      <c r="AP44">
+        <v>0</v>
+      </c>
+      <c r="AQ44">
+        <v>2</v>
+      </c>
+      <c r="AR44">
+        <v>1.03</v>
+      </c>
+      <c r="AS44">
+        <v>1.54</v>
+      </c>
+      <c r="AT44">
+        <v>2.57</v>
+      </c>
+      <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AV44">
+        <v>7</v>
+      </c>
+      <c r="AW44">
+        <v>3</v>
+      </c>
+      <c r="AX44">
+        <v>7</v>
+      </c>
+      <c r="AY44">
+        <v>7</v>
+      </c>
+      <c r="AZ44">
+        <v>14</v>
+      </c>
+      <c r="BA44">
+        <v>2</v>
+      </c>
+      <c r="BB44">
+        <v>6</v>
+      </c>
+      <c r="BC44">
+        <v>8</v>
+      </c>
+      <c r="BD44">
+        <v>3.08</v>
+      </c>
+      <c r="BE44">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF44">
+        <v>1.5</v>
+      </c>
+      <c r="BG44">
+        <v>1.38</v>
+      </c>
+      <c r="BH44">
+        <v>2.71</v>
+      </c>
+      <c r="BI44">
+        <v>1.71</v>
+      </c>
+      <c r="BJ44">
+        <v>2.02</v>
+      </c>
+      <c r="BK44">
+        <v>2.17</v>
+      </c>
+      <c r="BL44">
+        <v>1.58</v>
+      </c>
+      <c r="BM44">
+        <v>2.93</v>
+      </c>
+      <c r="BN44">
+        <v>1.33</v>
+      </c>
+      <c r="BO44">
+        <v>4.2</v>
+      </c>
+      <c r="BP44">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7347800</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45396.33333333334</v>
+      </c>
+      <c r="F45">
+        <v>6</v>
+      </c>
+      <c r="G45" t="s">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45" t="s">
+        <v>90</v>
+      </c>
+      <c r="P45" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q45">
+        <v>1.8</v>
+      </c>
+      <c r="R45">
+        <v>2.6</v>
+      </c>
+      <c r="S45">
+        <v>7.5</v>
+      </c>
+      <c r="T45">
+        <v>1.29</v>
+      </c>
+      <c r="U45">
+        <v>3.5</v>
+      </c>
+      <c r="V45">
+        <v>2.38</v>
+      </c>
+      <c r="W45">
+        <v>1.53</v>
+      </c>
+      <c r="X45">
+        <v>5.5</v>
+      </c>
+      <c r="Y45">
+        <v>1.14</v>
+      </c>
+      <c r="Z45">
+        <v>1.45</v>
+      </c>
+      <c r="AA45">
+        <v>4.8</v>
+      </c>
+      <c r="AB45">
+        <v>7.4</v>
+      </c>
+      <c r="AC45">
+        <v>1.04</v>
+      </c>
+      <c r="AD45">
+        <v>17.5</v>
+      </c>
+      <c r="AE45">
+        <v>1.24</v>
+      </c>
+      <c r="AF45">
+        <v>4.9</v>
+      </c>
+      <c r="AG45">
+        <v>1.84</v>
+      </c>
+      <c r="AH45">
+        <v>2.05</v>
+      </c>
+      <c r="AI45">
+        <v>1.95</v>
+      </c>
+      <c r="AJ45">
+        <v>1.8</v>
+      </c>
+      <c r="AK45">
+        <v>1.08</v>
+      </c>
+      <c r="AL45">
+        <v>1.18</v>
+      </c>
+      <c r="AM45">
+        <v>3.9</v>
+      </c>
+      <c r="AN45">
+        <v>0.5</v>
+      </c>
+      <c r="AO45">
+        <v>0.5</v>
+      </c>
+      <c r="AP45">
+        <v>0.67</v>
+      </c>
+      <c r="AQ45">
+        <v>0.67</v>
+      </c>
+      <c r="AR45">
+        <v>1.43</v>
+      </c>
+      <c r="AS45">
+        <v>0.82</v>
+      </c>
+      <c r="AT45">
+        <v>2.25</v>
+      </c>
+      <c r="AU45">
+        <v>8</v>
+      </c>
+      <c r="AV45">
+        <v>3</v>
+      </c>
+      <c r="AW45">
+        <v>7</v>
+      </c>
+      <c r="AX45">
+        <v>3</v>
+      </c>
+      <c r="AY45">
+        <v>15</v>
+      </c>
+      <c r="AZ45">
+        <v>6</v>
+      </c>
+      <c r="BA45">
+        <v>11</v>
+      </c>
+      <c r="BB45">
+        <v>1</v>
+      </c>
+      <c r="BC45">
+        <v>12</v>
+      </c>
+      <c r="BD45">
+        <v>1.3</v>
+      </c>
+      <c r="BE45">
+        <v>10</v>
+      </c>
+      <c r="BF45">
+        <v>3.7</v>
+      </c>
+      <c r="BG45">
+        <v>1.28</v>
+      </c>
+      <c r="BH45">
+        <v>3.18</v>
+      </c>
+      <c r="BI45">
+        <v>1.53</v>
+      </c>
+      <c r="BJ45">
+        <v>2.27</v>
+      </c>
+      <c r="BK45">
+        <v>1.91</v>
+      </c>
+      <c r="BL45">
+        <v>1.8</v>
+      </c>
+      <c r="BM45">
+        <v>2.51</v>
+      </c>
+      <c r="BN45">
+        <v>1.44</v>
+      </c>
+      <c r="BO45">
+        <v>3.42</v>
+      </c>
+      <c r="BP45">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7347803</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45396.35763888889</v>
+      </c>
+      <c r="F46">
+        <v>6</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>7</v>
+      </c>
+      <c r="O46" t="s">
+        <v>113</v>
+      </c>
+      <c r="P46" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q46">
+        <v>2.2</v>
+      </c>
+      <c r="R46">
+        <v>2.38</v>
+      </c>
+      <c r="S46">
+        <v>5</v>
+      </c>
+      <c r="T46">
+        <v>1.33</v>
+      </c>
+      <c r="U46">
+        <v>3.25</v>
+      </c>
+      <c r="V46">
+        <v>2.63</v>
+      </c>
+      <c r="W46">
+        <v>1.44</v>
+      </c>
+      <c r="X46">
+        <v>6.5</v>
+      </c>
+      <c r="Y46">
+        <v>1.11</v>
+      </c>
+      <c r="Z46">
+        <v>1.87</v>
+      </c>
+      <c r="AA46">
+        <v>3.95</v>
+      </c>
+      <c r="AB46">
+        <v>4.1</v>
+      </c>
+      <c r="AC46">
+        <v>1.04</v>
+      </c>
+      <c r="AD46">
+        <v>14.25</v>
+      </c>
+      <c r="AE46">
+        <v>1.24</v>
+      </c>
+      <c r="AF46">
+        <v>4.13</v>
+      </c>
+      <c r="AG46">
+        <v>1.84</v>
+      </c>
+      <c r="AH46">
+        <v>2.05</v>
+      </c>
+      <c r="AI46">
+        <v>1.75</v>
+      </c>
+      <c r="AJ46">
+        <v>2</v>
+      </c>
+      <c r="AK46">
+        <v>1.13</v>
+      </c>
+      <c r="AL46">
+        <v>1.2</v>
+      </c>
+      <c r="AM46">
+        <v>2.15</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>3</v>
+      </c>
+      <c r="AP46">
+        <v>3</v>
+      </c>
+      <c r="AQ46">
+        <v>1.5</v>
+      </c>
+      <c r="AR46">
+        <v>1.97</v>
+      </c>
+      <c r="AS46">
+        <v>1.68</v>
+      </c>
+      <c r="AT46">
+        <v>3.65</v>
+      </c>
+      <c r="AU46">
+        <v>14</v>
+      </c>
+      <c r="AV46">
+        <v>7</v>
+      </c>
+      <c r="AW46">
+        <v>7</v>
+      </c>
+      <c r="AX46">
+        <v>5</v>
+      </c>
+      <c r="AY46">
+        <v>21</v>
+      </c>
+      <c r="AZ46">
+        <v>12</v>
+      </c>
+      <c r="BA46">
+        <v>7</v>
+      </c>
+      <c r="BB46">
+        <v>1</v>
+      </c>
+      <c r="BC46">
+        <v>8</v>
+      </c>
+      <c r="BD46">
+        <v>1.62</v>
+      </c>
+      <c r="BE46">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF46">
+        <v>2.68</v>
+      </c>
+      <c r="BG46">
+        <v>1.33</v>
+      </c>
+      <c r="BH46">
+        <v>2.91</v>
+      </c>
+      <c r="BI46">
+        <v>1.62</v>
+      </c>
+      <c r="BJ46">
+        <v>2.11</v>
+      </c>
+      <c r="BK46">
+        <v>2.08</v>
+      </c>
+      <c r="BL46">
+        <v>1.67</v>
+      </c>
+      <c r="BM46">
+        <v>2.75</v>
+      </c>
+      <c r="BN46">
+        <v>1.37</v>
+      </c>
+      <c r="BO46">
+        <v>3.84</v>
+      </c>
+      <c r="BP46">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7347801</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45396.35763888889</v>
+      </c>
+      <c r="F47">
+        <v>6</v>
+      </c>
+      <c r="G47" t="s">
+        <v>74</v>
+      </c>
+      <c r="H47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <v>5</v>
+      </c>
+      <c r="O47" t="s">
+        <v>114</v>
+      </c>
+      <c r="P47" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q47">
+        <v>2.4</v>
+      </c>
+      <c r="R47">
+        <v>2.25</v>
+      </c>
+      <c r="S47">
+        <v>4.5</v>
+      </c>
+      <c r="T47">
+        <v>1.36</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>2.75</v>
+      </c>
+      <c r="W47">
+        <v>1.4</v>
+      </c>
+      <c r="X47">
+        <v>7</v>
+      </c>
+      <c r="Y47">
+        <v>1.1</v>
+      </c>
+      <c r="Z47">
+        <v>1.83</v>
+      </c>
+      <c r="AA47">
+        <v>3.5</v>
+      </c>
+      <c r="AB47">
+        <v>3.8</v>
+      </c>
+      <c r="AC47">
+        <v>1.04</v>
+      </c>
+      <c r="AD47">
+        <v>9</v>
+      </c>
+      <c r="AE47">
+        <v>1.25</v>
+      </c>
+      <c r="AF47">
+        <v>3.6</v>
+      </c>
+      <c r="AG47">
+        <v>1.85</v>
+      </c>
+      <c r="AH47">
+        <v>1.95</v>
+      </c>
+      <c r="AI47">
+        <v>1.75</v>
+      </c>
+      <c r="AJ47">
+        <v>2</v>
+      </c>
+      <c r="AK47">
+        <v>1.25</v>
+      </c>
+      <c r="AL47">
+        <v>1.22</v>
+      </c>
+      <c r="AM47">
+        <v>1.85</v>
+      </c>
+      <c r="AN47">
+        <v>2</v>
+      </c>
+      <c r="AO47">
+        <v>1.5</v>
+      </c>
+      <c r="AP47">
+        <v>2.25</v>
+      </c>
+      <c r="AQ47">
+        <v>1</v>
+      </c>
+      <c r="AR47">
+        <v>1.03</v>
+      </c>
+      <c r="AS47">
+        <v>1.2</v>
+      </c>
+      <c r="AT47">
+        <v>2.23</v>
+      </c>
+      <c r="AU47">
+        <v>7</v>
+      </c>
+      <c r="AV47">
+        <v>6</v>
+      </c>
+      <c r="AW47">
+        <v>8</v>
+      </c>
+      <c r="AX47">
+        <v>8</v>
+      </c>
+      <c r="AY47">
+        <v>15</v>
+      </c>
+      <c r="AZ47">
+        <v>14</v>
+      </c>
+      <c r="BA47">
+        <v>2</v>
+      </c>
+      <c r="BB47">
+        <v>8</v>
+      </c>
+      <c r="BC47">
+        <v>10</v>
+      </c>
+      <c r="BD47">
+        <v>1.57</v>
+      </c>
+      <c r="BE47">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF47">
+        <v>2.83</v>
+      </c>
+      <c r="BG47">
+        <v>1.36</v>
+      </c>
+      <c r="BH47">
+        <v>2.79</v>
+      </c>
+      <c r="BI47">
+        <v>1.67</v>
+      </c>
+      <c r="BJ47">
+        <v>2.08</v>
+      </c>
+      <c r="BK47">
+        <v>2.11</v>
+      </c>
+      <c r="BL47">
+        <v>1.62</v>
+      </c>
+      <c r="BM47">
+        <v>2.84</v>
+      </c>
+      <c r="BN47">
+        <v>1.35</v>
+      </c>
+      <c r="BO47">
+        <v>4</v>
+      </c>
+      <c r="BP47">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7347802</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45396.35763888889</v>
+      </c>
+      <c r="F48">
+        <v>6</v>
+      </c>
+      <c r="G48" t="s">
+        <v>78</v>
+      </c>
+      <c r="H48" t="s">
+        <v>76</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>2</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48" t="s">
+        <v>115</v>
+      </c>
+      <c r="P48" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q48">
+        <v>4.33</v>
+      </c>
+      <c r="R48">
+        <v>2.05</v>
+      </c>
+      <c r="S48">
+        <v>2.88</v>
+      </c>
+      <c r="T48">
+        <v>1.44</v>
+      </c>
+      <c r="U48">
+        <v>2.63</v>
+      </c>
+      <c r="V48">
+        <v>3.4</v>
+      </c>
+      <c r="W48">
+        <v>1.3</v>
+      </c>
+      <c r="X48">
+        <v>10</v>
+      </c>
+      <c r="Y48">
+        <v>1.06</v>
+      </c>
+      <c r="Z48">
+        <v>3.55</v>
+      </c>
+      <c r="AA48">
+        <v>3.55</v>
+      </c>
+      <c r="AB48">
+        <v>2.13</v>
+      </c>
+      <c r="AC48">
+        <v>1.08</v>
+      </c>
+      <c r="AD48">
+        <v>9.4</v>
+      </c>
+      <c r="AE48">
+        <v>1.39</v>
+      </c>
+      <c r="AF48">
+        <v>3.02</v>
+      </c>
+      <c r="AG48">
+        <v>2.15</v>
+      </c>
+      <c r="AH48">
+        <v>1.62</v>
+      </c>
+      <c r="AI48">
+        <v>1.95</v>
+      </c>
+      <c r="AJ48">
+        <v>1.8</v>
+      </c>
+      <c r="AK48">
+        <v>1.7</v>
+      </c>
+      <c r="AL48">
+        <v>1.25</v>
+      </c>
+      <c r="AM48">
+        <v>1.32</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>1.5</v>
+      </c>
+      <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
+        <v>1</v>
+      </c>
+      <c r="AR48">
+        <v>1.33</v>
+      </c>
+      <c r="AS48">
+        <v>1.7</v>
+      </c>
+      <c r="AT48">
+        <v>3.03</v>
+      </c>
+      <c r="AU48">
+        <v>5</v>
+      </c>
+      <c r="AV48">
+        <v>4</v>
+      </c>
+      <c r="AW48">
+        <v>7</v>
+      </c>
+      <c r="AX48">
+        <v>7</v>
+      </c>
+      <c r="AY48">
+        <v>12</v>
+      </c>
+      <c r="AZ48">
+        <v>11</v>
+      </c>
+      <c r="BA48">
+        <v>6</v>
+      </c>
+      <c r="BB48">
+        <v>8</v>
+      </c>
+      <c r="BC48">
+        <v>14</v>
+      </c>
+      <c r="BD48">
+        <v>2.47</v>
+      </c>
+      <c r="BE48">
+        <v>8.4</v>
+      </c>
+      <c r="BF48">
+        <v>1.72</v>
+      </c>
+      <c r="BG48">
+        <v>1.37</v>
+      </c>
+      <c r="BH48">
+        <v>2.75</v>
+      </c>
+      <c r="BI48">
+        <v>1.69</v>
+      </c>
+      <c r="BJ48">
+        <v>2.04</v>
+      </c>
+      <c r="BK48">
+        <v>2.14</v>
+      </c>
+      <c r="BL48">
+        <v>1.6</v>
+      </c>
+      <c r="BM48">
+        <v>2.88</v>
+      </c>
+      <c r="BN48">
+        <v>1.34</v>
+      </c>
+      <c r="BO48">
+        <v>4.1</v>
+      </c>
+      <c r="BP48">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7347804</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45396.375</v>
+      </c>
+      <c r="F49">
+        <v>6</v>
+      </c>
+      <c r="G49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" t="s">
+        <v>83</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>116</v>
+      </c>
+      <c r="P49" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q49">
+        <v>2.75</v>
+      </c>
+      <c r="R49">
+        <v>2.25</v>
+      </c>
+      <c r="S49">
+        <v>3.75</v>
+      </c>
+      <c r="T49">
+        <v>1.36</v>
+      </c>
+      <c r="U49">
+        <v>3</v>
+      </c>
+      <c r="V49">
+        <v>2.63</v>
+      </c>
+      <c r="W49">
+        <v>1.44</v>
+      </c>
+      <c r="X49">
+        <v>7</v>
+      </c>
+      <c r="Y49">
+        <v>1.1</v>
+      </c>
+      <c r="Z49">
+        <v>2.09</v>
+      </c>
+      <c r="AA49">
+        <v>3.35</v>
+      </c>
+      <c r="AB49">
+        <v>3.09</v>
+      </c>
+      <c r="AC49">
+        <v>1.05</v>
+      </c>
+      <c r="AD49">
+        <v>8.5</v>
+      </c>
+      <c r="AE49">
+        <v>1.25</v>
+      </c>
+      <c r="AF49">
+        <v>3.7</v>
+      </c>
+      <c r="AG49">
+        <v>1.8</v>
+      </c>
+      <c r="AH49">
+        <v>2</v>
+      </c>
+      <c r="AI49">
+        <v>1.67</v>
+      </c>
+      <c r="AJ49">
+        <v>2.1</v>
+      </c>
+      <c r="AK49">
+        <v>1.33</v>
+      </c>
+      <c r="AL49">
+        <v>1.25</v>
+      </c>
+      <c r="AM49">
+        <v>1.67</v>
+      </c>
+      <c r="AN49">
+        <v>0.5</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>0.67</v>
+      </c>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
+        <v>1.41</v>
+      </c>
+      <c r="AS49">
+        <v>1.21</v>
+      </c>
+      <c r="AT49">
+        <v>2.62</v>
+      </c>
+      <c r="AU49">
+        <v>7</v>
+      </c>
+      <c r="AV49">
+        <v>5</v>
+      </c>
+      <c r="AW49">
+        <v>0</v>
+      </c>
+      <c r="AX49">
+        <v>4</v>
+      </c>
+      <c r="AY49">
+        <v>7</v>
+      </c>
+      <c r="AZ49">
+        <v>9</v>
+      </c>
+      <c r="BA49">
+        <v>4</v>
+      </c>
+      <c r="BB49">
+        <v>1</v>
+      </c>
+      <c r="BC49">
+        <v>5</v>
+      </c>
+      <c r="BD49">
+        <v>1.69</v>
+      </c>
+      <c r="BE49">
+        <v>8.6</v>
+      </c>
+      <c r="BF49">
+        <v>2.52</v>
+      </c>
+      <c r="BG49">
+        <v>1.33</v>
+      </c>
+      <c r="BH49">
+        <v>2.93</v>
+      </c>
+      <c r="BI49">
+        <v>1.6</v>
+      </c>
+      <c r="BJ49">
+        <v>2.14</v>
+      </c>
+      <c r="BK49">
+        <v>2.04</v>
+      </c>
+      <c r="BL49">
+        <v>1.69</v>
+      </c>
+      <c r="BM49">
+        <v>2.71</v>
+      </c>
+      <c r="BN49">
+        <v>1.38</v>
+      </c>
+      <c r="BO49">
+        <v>3.74</v>
+      </c>
+      <c r="BP49">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -9835,13 +9835,13 @@
         <v>3</v>
       </c>
       <c r="AX44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY44">
         <v>7</v>
       </c>
       <c r="AZ44">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA44">
         <v>2</v>
@@ -10447,7 +10447,7 @@
         <v>7</v>
       </c>
       <c r="AV47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW47">
         <v>8</v>
@@ -10459,7 +10459,7 @@
         <v>15</v>
       </c>
       <c r="AZ47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA47">
         <v>2</v>
@@ -10862,13 +10862,13 @@
         <v>5</v>
       </c>
       <c r="AW49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX49">
         <v>4</v>
       </c>
       <c r="AY49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ49">
         <v>9</v>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="153">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -367,6 +367,12 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['37', '73', '80']</t>
+  </si>
+  <si>
+    <t>['21', '39', '45+4', '66']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -461,6 +467,12 @@
   </si>
   <si>
     <t>['57']</t>
+  </si>
+  <si>
+    <t>['13', '54']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
   </si>
 </sst>
 </file>
@@ -822,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1081,7 +1093,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1159,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1287,7 +1299,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1493,7 +1505,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1699,7 +1711,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1905,7 +1917,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2395,7 +2407,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
         <v>2</v>
@@ -2523,7 +2535,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3141,7 +3153,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3425,7 +3437,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3631,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
         <v>1.67</v>
@@ -3759,7 +3771,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4171,7 +4183,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4252,7 +4264,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ17">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4377,7 +4389,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4458,7 +4470,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>1.67</v>
@@ -4583,7 +4595,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5407,7 +5419,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5488,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5613,7 +5625,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5691,7 +5703,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ24">
         <v>3</v>
@@ -5819,7 +5831,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6025,7 +6037,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6106,7 +6118,7 @@
         <v>0</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR26">
         <v>0.87</v>
@@ -6231,7 +6243,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6437,7 +6449,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6643,7 +6655,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6849,7 +6861,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7261,7 +7273,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7467,7 +7479,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7545,7 +7557,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -7673,7 +7685,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7879,7 +7891,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -7957,7 +7969,7 @@
         <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ35">
         <v>0.67</v>
@@ -8085,7 +8097,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8291,7 +8303,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8497,7 +8509,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8578,7 +8590,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -9321,7 +9333,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9527,7 +9539,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9733,7 +9745,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10145,7 +10157,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10351,7 +10363,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10763,7 +10775,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -10920,6 +10932,418 @@
       </c>
       <c r="BP49">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7347805</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45401.375</v>
+      </c>
+      <c r="F50">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s">
+        <v>73</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50" t="s">
+        <v>117</v>
+      </c>
+      <c r="P50" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q50">
+        <v>2.88</v>
+      </c>
+      <c r="R50">
+        <v>2.2</v>
+      </c>
+      <c r="S50">
+        <v>3.6</v>
+      </c>
+      <c r="T50">
+        <v>1.4</v>
+      </c>
+      <c r="U50">
+        <v>2.75</v>
+      </c>
+      <c r="V50">
+        <v>2.75</v>
+      </c>
+      <c r="W50">
+        <v>1.4</v>
+      </c>
+      <c r="X50">
+        <v>8</v>
+      </c>
+      <c r="Y50">
+        <v>1.08</v>
+      </c>
+      <c r="Z50">
+        <v>2.52</v>
+      </c>
+      <c r="AA50">
+        <v>3.58</v>
+      </c>
+      <c r="AB50">
+        <v>2.54</v>
+      </c>
+      <c r="AC50">
+        <v>1.04</v>
+      </c>
+      <c r="AD50">
+        <v>9</v>
+      </c>
+      <c r="AE50">
+        <v>1.28</v>
+      </c>
+      <c r="AF50">
+        <v>3.5</v>
+      </c>
+      <c r="AG50">
+        <v>1.65</v>
+      </c>
+      <c r="AH50">
+        <v>2.15</v>
+      </c>
+      <c r="AI50">
+        <v>1.75</v>
+      </c>
+      <c r="AJ50">
+        <v>2</v>
+      </c>
+      <c r="AK50">
+        <v>1.38</v>
+      </c>
+      <c r="AL50">
+        <v>1.22</v>
+      </c>
+      <c r="AM50">
+        <v>1.65</v>
+      </c>
+      <c r="AN50">
+        <v>1.33</v>
+      </c>
+      <c r="AO50">
+        <v>3</v>
+      </c>
+      <c r="AP50">
+        <v>1.75</v>
+      </c>
+      <c r="AQ50">
+        <v>2.25</v>
+      </c>
+      <c r="AR50">
+        <v>1.28</v>
+      </c>
+      <c r="AS50">
+        <v>1.52</v>
+      </c>
+      <c r="AT50">
+        <v>2.8</v>
+      </c>
+      <c r="AU50">
+        <v>-1</v>
+      </c>
+      <c r="AV50">
+        <v>-1</v>
+      </c>
+      <c r="AW50">
+        <v>-1</v>
+      </c>
+      <c r="AX50">
+        <v>-1</v>
+      </c>
+      <c r="AY50">
+        <v>-1</v>
+      </c>
+      <c r="AZ50">
+        <v>-1</v>
+      </c>
+      <c r="BA50">
+        <v>-1</v>
+      </c>
+      <c r="BB50">
+        <v>-1</v>
+      </c>
+      <c r="BC50">
+        <v>-1</v>
+      </c>
+      <c r="BD50">
+        <v>1.8</v>
+      </c>
+      <c r="BE50">
+        <v>8</v>
+      </c>
+      <c r="BF50">
+        <v>2.3</v>
+      </c>
+      <c r="BG50">
+        <v>1.32</v>
+      </c>
+      <c r="BH50">
+        <v>3.2</v>
+      </c>
+      <c r="BI50">
+        <v>1.48</v>
+      </c>
+      <c r="BJ50">
+        <v>2.47</v>
+      </c>
+      <c r="BK50">
+        <v>1.9</v>
+      </c>
+      <c r="BL50">
+        <v>1.8</v>
+      </c>
+      <c r="BM50">
+        <v>2.47</v>
+      </c>
+      <c r="BN50">
+        <v>1.48</v>
+      </c>
+      <c r="BO50">
+        <v>3.3</v>
+      </c>
+      <c r="BP50">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7347806</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45402.1875</v>
+      </c>
+      <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" t="s">
+        <v>74</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+      <c r="L51">
+        <v>4</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>5</v>
+      </c>
+      <c r="O51" t="s">
+        <v>118</v>
+      </c>
+      <c r="P51" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>2.5</v>
+      </c>
+      <c r="S51">
+        <v>5.5</v>
+      </c>
+      <c r="T51">
+        <v>1.29</v>
+      </c>
+      <c r="U51">
+        <v>3.5</v>
+      </c>
+      <c r="V51">
+        <v>2.25</v>
+      </c>
+      <c r="W51">
+        <v>1.57</v>
+      </c>
+      <c r="X51">
+        <v>5.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.14</v>
+      </c>
+      <c r="Z51">
+        <v>1.44</v>
+      </c>
+      <c r="AA51">
+        <v>4.29</v>
+      </c>
+      <c r="AB51">
+        <v>5.47</v>
+      </c>
+      <c r="AC51">
+        <v>1.03</v>
+      </c>
+      <c r="AD51">
+        <v>10</v>
+      </c>
+      <c r="AE51">
+        <v>1.18</v>
+      </c>
+      <c r="AF51">
+        <v>4.5</v>
+      </c>
+      <c r="AG51">
+        <v>1.61</v>
+      </c>
+      <c r="AH51">
+        <v>2.34</v>
+      </c>
+      <c r="AI51">
+        <v>1.7</v>
+      </c>
+      <c r="AJ51">
+        <v>2.05</v>
+      </c>
+      <c r="AK51">
+        <v>1.1</v>
+      </c>
+      <c r="AL51">
+        <v>1.15</v>
+      </c>
+      <c r="AM51">
+        <v>2.55</v>
+      </c>
+      <c r="AN51">
+        <v>1.25</v>
+      </c>
+      <c r="AO51">
+        <v>2</v>
+      </c>
+      <c r="AP51">
+        <v>1.6</v>
+      </c>
+      <c r="AQ51">
+        <v>1.33</v>
+      </c>
+      <c r="AR51">
+        <v>1.89</v>
+      </c>
+      <c r="AS51">
+        <v>1.13</v>
+      </c>
+      <c r="AT51">
+        <v>3.02</v>
+      </c>
+      <c r="AU51">
+        <v>10</v>
+      </c>
+      <c r="AV51">
+        <v>5</v>
+      </c>
+      <c r="AW51">
+        <v>12</v>
+      </c>
+      <c r="AX51">
+        <v>3</v>
+      </c>
+      <c r="AY51">
+        <v>22</v>
+      </c>
+      <c r="AZ51">
+        <v>8</v>
+      </c>
+      <c r="BA51">
+        <v>9</v>
+      </c>
+      <c r="BB51">
+        <v>2</v>
+      </c>
+      <c r="BC51">
+        <v>11</v>
+      </c>
+      <c r="BD51">
+        <v>1.4</v>
+      </c>
+      <c r="BE51">
+        <v>9</v>
+      </c>
+      <c r="BF51">
+        <v>3.5</v>
+      </c>
+      <c r="BG51">
+        <v>1.32</v>
+      </c>
+      <c r="BH51">
+        <v>3.1</v>
+      </c>
+      <c r="BI51">
+        <v>1.6</v>
+      </c>
+      <c r="BJ51">
+        <v>2.2</v>
+      </c>
+      <c r="BK51">
+        <v>2.07</v>
+      </c>
+      <c r="BL51">
+        <v>1.67</v>
+      </c>
+      <c r="BM51">
+        <v>2.75</v>
+      </c>
+      <c r="BN51">
+        <v>1.4</v>
+      </c>
+      <c r="BO51">
+        <v>3.8</v>
+      </c>
+      <c r="BP51">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -373,6 +373,9 @@
     <t>['21', '39', '45+4', '66']</t>
   </si>
   <si>
+    <t>['4', '58', '89']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -473,6 +476,9 @@
   </si>
   <si>
     <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['26']</t>
   </si>
 </sst>
 </file>
@@ -834,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1099,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1299,7 +1305,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1505,7 +1511,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1711,7 +1717,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1917,7 +1923,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2410,7 +2416,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2535,7 +2541,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3153,7 +3159,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3771,7 +3777,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4183,7 +4189,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4389,7 +4395,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4595,7 +4601,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4673,7 +4679,7 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -5419,7 +5425,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5625,7 +5631,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5831,7 +5837,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6037,7 +6043,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6115,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6243,7 +6249,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6449,7 +6455,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6530,7 +6536,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ28">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>2.4</v>
@@ -6655,7 +6661,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6861,7 +6867,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7273,7 +7279,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7479,7 +7485,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7685,7 +7691,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7891,7 +7897,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8097,7 +8103,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8178,7 +8184,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.16</v>
@@ -8303,7 +8309,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8509,7 +8515,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9333,7 +9339,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9539,7 +9545,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9745,7 +9751,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10157,7 +10163,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10363,7 +10369,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10775,7 +10781,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -10981,7 +10987,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11187,7 +11193,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11344,6 +11350,418 @@
       </c>
       <c r="BP51">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7347807</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45402.33333333334</v>
+      </c>
+      <c r="F52">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+      <c r="L52">
+        <v>3</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>119</v>
+      </c>
+      <c r="P52" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q52">
+        <v>1.83</v>
+      </c>
+      <c r="R52">
+        <v>2.5</v>
+      </c>
+      <c r="S52">
+        <v>7</v>
+      </c>
+      <c r="T52">
+        <v>1.29</v>
+      </c>
+      <c r="U52">
+        <v>3.5</v>
+      </c>
+      <c r="V52">
+        <v>2.38</v>
+      </c>
+      <c r="W52">
+        <v>1.53</v>
+      </c>
+      <c r="X52">
+        <v>6</v>
+      </c>
+      <c r="Y52">
+        <v>1.13</v>
+      </c>
+      <c r="Z52">
+        <v>1.3</v>
+      </c>
+      <c r="AA52">
+        <v>4.75</v>
+      </c>
+      <c r="AB52">
+        <v>8.5</v>
+      </c>
+      <c r="AC52">
+        <v>1.03</v>
+      </c>
+      <c r="AD52">
+        <v>10</v>
+      </c>
+      <c r="AE52">
+        <v>1.22</v>
+      </c>
+      <c r="AF52">
+        <v>4</v>
+      </c>
+      <c r="AG52">
+        <v>1.64</v>
+      </c>
+      <c r="AH52">
+        <v>2.27</v>
+      </c>
+      <c r="AI52">
+        <v>1.95</v>
+      </c>
+      <c r="AJ52">
+        <v>1.8</v>
+      </c>
+      <c r="AK52">
+        <v>1.03</v>
+      </c>
+      <c r="AL52">
+        <v>1.12</v>
+      </c>
+      <c r="AM52">
+        <v>3.1</v>
+      </c>
+      <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <v>2</v>
+      </c>
+      <c r="AP52">
+        <v>3</v>
+      </c>
+      <c r="AQ52">
+        <v>1.5</v>
+      </c>
+      <c r="AR52">
+        <v>1.36</v>
+      </c>
+      <c r="AS52">
+        <v>1.63</v>
+      </c>
+      <c r="AT52">
+        <v>2.99</v>
+      </c>
+      <c r="AU52">
+        <v>-1</v>
+      </c>
+      <c r="AV52">
+        <v>-1</v>
+      </c>
+      <c r="AW52">
+        <v>-1</v>
+      </c>
+      <c r="AX52">
+        <v>-1</v>
+      </c>
+      <c r="AY52">
+        <v>-1</v>
+      </c>
+      <c r="AZ52">
+        <v>-1</v>
+      </c>
+      <c r="BA52">
+        <v>-1</v>
+      </c>
+      <c r="BB52">
+        <v>-1</v>
+      </c>
+      <c r="BC52">
+        <v>-1</v>
+      </c>
+      <c r="BD52">
+        <v>1.3</v>
+      </c>
+      <c r="BE52">
+        <v>9.5</v>
+      </c>
+      <c r="BF52">
+        <v>4</v>
+      </c>
+      <c r="BG52">
+        <v>1.32</v>
+      </c>
+      <c r="BH52">
+        <v>3.1</v>
+      </c>
+      <c r="BI52">
+        <v>1.6</v>
+      </c>
+      <c r="BJ52">
+        <v>2.2</v>
+      </c>
+      <c r="BK52">
+        <v>2.07</v>
+      </c>
+      <c r="BL52">
+        <v>1.67</v>
+      </c>
+      <c r="BM52">
+        <v>2.75</v>
+      </c>
+      <c r="BN52">
+        <v>1.4</v>
+      </c>
+      <c r="BO52">
+        <v>3.8</v>
+      </c>
+      <c r="BP52">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7347808</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45402.35763888889</v>
+      </c>
+      <c r="F53">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>83</v>
+      </c>
+      <c r="H53" t="s">
+        <v>84</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53" t="s">
+        <v>90</v>
+      </c>
+      <c r="P53" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q53">
+        <v>2.35</v>
+      </c>
+      <c r="R53">
+        <v>2.46</v>
+      </c>
+      <c r="S53">
+        <v>4.24</v>
+      </c>
+      <c r="T53">
+        <v>1.3</v>
+      </c>
+      <c r="U53">
+        <v>3.34</v>
+      </c>
+      <c r="V53">
+        <v>2.39</v>
+      </c>
+      <c r="W53">
+        <v>1.55</v>
+      </c>
+      <c r="X53">
+        <v>5.6</v>
+      </c>
+      <c r="Y53">
+        <v>1.12</v>
+      </c>
+      <c r="Z53">
+        <v>1.73</v>
+      </c>
+      <c r="AA53">
+        <v>4.2</v>
+      </c>
+      <c r="AB53">
+        <v>4.2</v>
+      </c>
+      <c r="AC53">
+        <v>1.04</v>
+      </c>
+      <c r="AD53">
+        <v>15</v>
+      </c>
+      <c r="AE53">
+        <v>1.17</v>
+      </c>
+      <c r="AF53">
+        <v>4.2</v>
+      </c>
+      <c r="AG53">
+        <v>1.56</v>
+      </c>
+      <c r="AH53">
+        <v>2.27</v>
+      </c>
+      <c r="AI53">
+        <v>1.65</v>
+      </c>
+      <c r="AJ53">
+        <v>2.1</v>
+      </c>
+      <c r="AK53">
+        <v>1.3</v>
+      </c>
+      <c r="AL53">
+        <v>1.27</v>
+      </c>
+      <c r="AM53">
+        <v>1.85</v>
+      </c>
+      <c r="AN53">
+        <v>0</v>
+      </c>
+      <c r="AO53">
+        <v>1</v>
+      </c>
+      <c r="AP53">
+        <v>0.33</v>
+      </c>
+      <c r="AQ53">
+        <v>1</v>
+      </c>
+      <c r="AR53">
+        <v>1.78</v>
+      </c>
+      <c r="AS53">
+        <v>1.01</v>
+      </c>
+      <c r="AT53">
+        <v>2.79</v>
+      </c>
+      <c r="AU53">
+        <v>-1</v>
+      </c>
+      <c r="AV53">
+        <v>-1</v>
+      </c>
+      <c r="AW53">
+        <v>-1</v>
+      </c>
+      <c r="AX53">
+        <v>-1</v>
+      </c>
+      <c r="AY53">
+        <v>-1</v>
+      </c>
+      <c r="AZ53">
+        <v>-1</v>
+      </c>
+      <c r="BA53">
+        <v>-1</v>
+      </c>
+      <c r="BB53">
+        <v>-1</v>
+      </c>
+      <c r="BC53">
+        <v>-1</v>
+      </c>
+      <c r="BD53">
+        <v>1.62</v>
+      </c>
+      <c r="BE53">
+        <v>8</v>
+      </c>
+      <c r="BF53">
+        <v>2.75</v>
+      </c>
+      <c r="BG53">
+        <v>1.31</v>
+      </c>
+      <c r="BH53">
+        <v>3.15</v>
+      </c>
+      <c r="BI53">
+        <v>1.6</v>
+      </c>
+      <c r="BJ53">
+        <v>2.2</v>
+      </c>
+      <c r="BK53">
+        <v>2.07</v>
+      </c>
+      <c r="BL53">
+        <v>1.67</v>
+      </c>
+      <c r="BM53">
+        <v>2.77</v>
+      </c>
+      <c r="BN53">
+        <v>1.39</v>
+      </c>
+      <c r="BO53">
+        <v>3.7</v>
+      </c>
+      <c r="BP53">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="156">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -479,6 +479,9 @@
   </si>
   <si>
     <t>['26']</t>
+  </si>
+  <si>
+    <t>['3', '82']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3855,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -7151,7 +7154,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -7769,7 +7772,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ34">
         <v>1.67</v>
@@ -11080,31 +11083,31 @@
         <v>2.8</v>
       </c>
       <c r="AU50">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AV50">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW50">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX50">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY50">
-        <v>-1</v>
+        <v>19</v>
       </c>
       <c r="AZ50">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA50">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB50">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC50">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD50">
         <v>1.8</v>
@@ -11295,13 +11298,13 @@
         <v>12</v>
       </c>
       <c r="AX51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY51">
         <v>22</v>
       </c>
       <c r="AZ51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA51">
         <v>9</v>
@@ -11698,31 +11701,31 @@
         <v>2.79</v>
       </c>
       <c r="AU53">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW53">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY53">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BA53">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB53">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC53">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD53">
         <v>1.62</v>
@@ -11762,6 +11765,212 @@
       </c>
       <c r="BP53">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7347809</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45402.375</v>
+      </c>
+      <c r="F54">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>81</v>
+      </c>
+      <c r="H54" t="s">
+        <v>79</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>90</v>
+      </c>
+      <c r="P54" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q54">
+        <v>7.5</v>
+      </c>
+      <c r="R54">
+        <v>2.4</v>
+      </c>
+      <c r="S54">
+        <v>1.91</v>
+      </c>
+      <c r="T54">
+        <v>1.33</v>
+      </c>
+      <c r="U54">
+        <v>3.25</v>
+      </c>
+      <c r="V54">
+        <v>2.63</v>
+      </c>
+      <c r="W54">
+        <v>1.44</v>
+      </c>
+      <c r="X54">
+        <v>7</v>
+      </c>
+      <c r="Y54">
+        <v>1.1</v>
+      </c>
+      <c r="Z54">
+        <v>7.2</v>
+      </c>
+      <c r="AA54">
+        <v>4.9</v>
+      </c>
+      <c r="AB54">
+        <v>1.46</v>
+      </c>
+      <c r="AC54">
+        <v>1.04</v>
+      </c>
+      <c r="AD54">
+        <v>9</v>
+      </c>
+      <c r="AE54">
+        <v>1.25</v>
+      </c>
+      <c r="AF54">
+        <v>3.75</v>
+      </c>
+      <c r="AG54">
+        <v>1.84</v>
+      </c>
+      <c r="AH54">
+        <v>2.05</v>
+      </c>
+      <c r="AI54">
+        <v>2.1</v>
+      </c>
+      <c r="AJ54">
+        <v>1.67</v>
+      </c>
+      <c r="AK54">
+        <v>2.95</v>
+      </c>
+      <c r="AL54">
+        <v>1.14</v>
+      </c>
+      <c r="AM54">
+        <v>1.04</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
+        <v>3</v>
+      </c>
+      <c r="AP54">
+        <v>0.75</v>
+      </c>
+      <c r="AQ54">
+        <v>3</v>
+      </c>
+      <c r="AR54">
+        <v>0.95</v>
+      </c>
+      <c r="AS54">
+        <v>1.78</v>
+      </c>
+      <c r="AT54">
+        <v>2.73</v>
+      </c>
+      <c r="AU54">
+        <v>3</v>
+      </c>
+      <c r="AV54">
+        <v>8</v>
+      </c>
+      <c r="AW54">
+        <v>6</v>
+      </c>
+      <c r="AX54">
+        <v>2</v>
+      </c>
+      <c r="AY54">
+        <v>9</v>
+      </c>
+      <c r="AZ54">
+        <v>10</v>
+      </c>
+      <c r="BA54">
+        <v>9</v>
+      </c>
+      <c r="BB54">
+        <v>3</v>
+      </c>
+      <c r="BC54">
+        <v>12</v>
+      </c>
+      <c r="BD54">
+        <v>3.6</v>
+      </c>
+      <c r="BE54">
+        <v>9</v>
+      </c>
+      <c r="BF54">
+        <v>1.36</v>
+      </c>
+      <c r="BG54">
+        <v>1.32</v>
+      </c>
+      <c r="BH54">
+        <v>3.2</v>
+      </c>
+      <c r="BI54">
+        <v>1.49</v>
+      </c>
+      <c r="BJ54">
+        <v>2.45</v>
+      </c>
+      <c r="BK54">
+        <v>2</v>
+      </c>
+      <c r="BL54">
+        <v>1.8</v>
+      </c>
+      <c r="BM54">
+        <v>2.47</v>
+      </c>
+      <c r="BN54">
+        <v>1.48</v>
+      </c>
+      <c r="BO54">
+        <v>3.3</v>
+      </c>
+      <c r="BP54">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="157">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>['4', '58', '89']</t>
+  </si>
+  <si>
+    <t>['6', '63', '75', '90+6']</t>
   </si>
   <si>
     <t>['81', '90+3']</t>
@@ -843,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP54"/>
+  <dimension ref="A1:BP56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1102,7 +1105,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1308,7 +1311,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1514,7 +1517,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1720,7 +1723,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1926,7 +1929,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2213,7 +2216,7 @@
         <v>3</v>
       </c>
       <c r="AQ7">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2544,7 +2547,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -3037,7 +3040,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3162,7 +3165,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3240,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12">
         <v>0.67</v>
@@ -3780,7 +3783,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4192,7 +4195,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4398,7 +4401,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4604,7 +4607,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -5097,7 +5100,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR21">
         <v>0.99</v>
@@ -5428,7 +5431,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5634,7 +5637,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5840,7 +5843,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6046,7 +6049,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6252,7 +6255,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6458,7 +6461,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6536,7 +6539,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -6664,7 +6667,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6870,7 +6873,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -6948,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
         <v>1.67</v>
@@ -7282,7 +7285,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7488,7 +7491,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7569,7 +7572,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR33">
         <v>0.79</v>
@@ -7694,7 +7697,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7900,7 +7903,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -8106,7 +8109,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8184,7 +8187,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8312,7 +8315,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8518,7 +8521,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -9217,7 +9220,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ41">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR41">
         <v>0.89</v>
@@ -9342,7 +9345,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9420,7 +9423,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
         <v>0.67</v>
@@ -9548,7 +9551,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9754,7 +9757,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10166,7 +10169,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10372,7 +10375,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10453,7 +10456,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR47">
         <v>1.03</v>
@@ -10784,7 +10787,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -10990,7 +10993,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11196,7 +11199,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11402,7 +11405,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11495,31 +11498,31 @@
         <v>2.99</v>
       </c>
       <c r="AU52">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV52">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW52">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AX52">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY52">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="AZ52">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA52">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BB52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC52">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BD52">
         <v>1.3</v>
@@ -11814,7 +11817,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -11971,6 +11974,418 @@
       </c>
       <c r="BP54">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7347810</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45403.33333333334</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>80</v>
+      </c>
+      <c r="H55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>99</v>
+      </c>
+      <c r="P55" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q55">
+        <v>2.65</v>
+      </c>
+      <c r="R55">
+        <v>2.15</v>
+      </c>
+      <c r="S55">
+        <v>3.5</v>
+      </c>
+      <c r="T55">
+        <v>1.37</v>
+      </c>
+      <c r="U55">
+        <v>2.8</v>
+      </c>
+      <c r="V55">
+        <v>2.8</v>
+      </c>
+      <c r="W55">
+        <v>1.37</v>
+      </c>
+      <c r="X55">
+        <v>6.8</v>
+      </c>
+      <c r="Y55">
+        <v>1.07</v>
+      </c>
+      <c r="Z55">
+        <v>2.1</v>
+      </c>
+      <c r="AA55">
+        <v>3.4</v>
+      </c>
+      <c r="AB55">
+        <v>3.2</v>
+      </c>
+      <c r="AC55">
+        <v>1.06</v>
+      </c>
+      <c r="AD55">
+        <v>7.2</v>
+      </c>
+      <c r="AE55">
+        <v>1.27</v>
+      </c>
+      <c r="AF55">
+        <v>3.4</v>
+      </c>
+      <c r="AG55">
+        <v>1.87</v>
+      </c>
+      <c r="AH55">
+        <v>1.83</v>
+      </c>
+      <c r="AI55">
+        <v>1.7</v>
+      </c>
+      <c r="AJ55">
+        <v>2</v>
+      </c>
+      <c r="AK55">
+        <v>1.3</v>
+      </c>
+      <c r="AL55">
+        <v>1.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.67</v>
+      </c>
+      <c r="AN55">
+        <v>0.67</v>
+      </c>
+      <c r="AO55">
+        <v>0.33</v>
+      </c>
+      <c r="AP55">
+        <v>1.25</v>
+      </c>
+      <c r="AQ55">
+        <v>0.25</v>
+      </c>
+      <c r="AR55">
+        <v>1.53</v>
+      </c>
+      <c r="AS55">
+        <v>1.45</v>
+      </c>
+      <c r="AT55">
+        <v>2.98</v>
+      </c>
+      <c r="AU55">
+        <v>8</v>
+      </c>
+      <c r="AV55">
+        <v>3</v>
+      </c>
+      <c r="AW55">
+        <v>4</v>
+      </c>
+      <c r="AX55">
+        <v>4</v>
+      </c>
+      <c r="AY55">
+        <v>12</v>
+      </c>
+      <c r="AZ55">
+        <v>7</v>
+      </c>
+      <c r="BA55">
+        <v>11</v>
+      </c>
+      <c r="BB55">
+        <v>4</v>
+      </c>
+      <c r="BC55">
+        <v>15</v>
+      </c>
+      <c r="BD55">
+        <v>1.63</v>
+      </c>
+      <c r="BE55">
+        <v>7.4</v>
+      </c>
+      <c r="BF55">
+        <v>2.85</v>
+      </c>
+      <c r="BG55">
+        <v>1.38</v>
+      </c>
+      <c r="BH55">
+        <v>2.9</v>
+      </c>
+      <c r="BI55">
+        <v>1.66</v>
+      </c>
+      <c r="BJ55">
+        <v>2.14</v>
+      </c>
+      <c r="BK55">
+        <v>2.1</v>
+      </c>
+      <c r="BL55">
+        <v>1.69</v>
+      </c>
+      <c r="BM55">
+        <v>2.7</v>
+      </c>
+      <c r="BN55">
+        <v>1.43</v>
+      </c>
+      <c r="BO55">
+        <v>3.7</v>
+      </c>
+      <c r="BP55">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7347812</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45403.375</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56" t="s">
+        <v>85</v>
+      </c>
+      <c r="H56" t="s">
+        <v>71</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56">
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <v>5</v>
+      </c>
+      <c r="O56" t="s">
+        <v>120</v>
+      </c>
+      <c r="P56" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="R56">
+        <v>2.4</v>
+      </c>
+      <c r="S56">
+        <v>6</v>
+      </c>
+      <c r="T56">
+        <v>1.33</v>
+      </c>
+      <c r="U56">
+        <v>3.25</v>
+      </c>
+      <c r="V56">
+        <v>2.5</v>
+      </c>
+      <c r="W56">
+        <v>1.5</v>
+      </c>
+      <c r="X56">
+        <v>6.5</v>
+      </c>
+      <c r="Y56">
+        <v>1.11</v>
+      </c>
+      <c r="Z56">
+        <v>1.44</v>
+      </c>
+      <c r="AA56">
+        <v>4.33</v>
+      </c>
+      <c r="AB56">
+        <v>6</v>
+      </c>
+      <c r="AC56">
+        <v>1.04</v>
+      </c>
+      <c r="AD56">
+        <v>10</v>
+      </c>
+      <c r="AE56">
+        <v>1.22</v>
+      </c>
+      <c r="AF56">
+        <v>4</v>
+      </c>
+      <c r="AG56">
+        <v>1.7</v>
+      </c>
+      <c r="AH56">
+        <v>2</v>
+      </c>
+      <c r="AI56">
+        <v>1.95</v>
+      </c>
+      <c r="AJ56">
+        <v>1.8</v>
+      </c>
+      <c r="AK56">
+        <v>1.07</v>
+      </c>
+      <c r="AL56">
+        <v>1.16</v>
+      </c>
+      <c r="AM56">
+        <v>2.65</v>
+      </c>
+      <c r="AN56">
+        <v>0.5</v>
+      </c>
+      <c r="AO56">
+        <v>1</v>
+      </c>
+      <c r="AP56">
+        <v>1.33</v>
+      </c>
+      <c r="AQ56">
+        <v>0.75</v>
+      </c>
+      <c r="AR56">
+        <v>1.29</v>
+      </c>
+      <c r="AS56">
+        <v>1.46</v>
+      </c>
+      <c r="AT56">
+        <v>2.75</v>
+      </c>
+      <c r="AU56">
+        <v>-1</v>
+      </c>
+      <c r="AV56">
+        <v>-1</v>
+      </c>
+      <c r="AW56">
+        <v>-1</v>
+      </c>
+      <c r="AX56">
+        <v>-1</v>
+      </c>
+      <c r="AY56">
+        <v>-1</v>
+      </c>
+      <c r="AZ56">
+        <v>-1</v>
+      </c>
+      <c r="BA56">
+        <v>-1</v>
+      </c>
+      <c r="BB56">
+        <v>-1</v>
+      </c>
+      <c r="BC56">
+        <v>-1</v>
+      </c>
+      <c r="BD56">
+        <v>1.24</v>
+      </c>
+      <c r="BE56">
+        <v>9</v>
+      </c>
+      <c r="BF56">
+        <v>5.5</v>
+      </c>
+      <c r="BG56">
+        <v>1.39</v>
+      </c>
+      <c r="BH56">
+        <v>2.85</v>
+      </c>
+      <c r="BI56">
+        <v>1.67</v>
+      </c>
+      <c r="BJ56">
+        <v>2.13</v>
+      </c>
+      <c r="BK56">
+        <v>2.1</v>
+      </c>
+      <c r="BL56">
+        <v>1.68</v>
+      </c>
+      <c r="BM56">
+        <v>2.7</v>
+      </c>
+      <c r="BN56">
+        <v>1.43</v>
+      </c>
+      <c r="BO56">
+        <v>3.7</v>
+      </c>
+      <c r="BP56">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -12322,31 +12322,31 @@
         <v>2.75</v>
       </c>
       <c r="AU56">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AV56">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW56">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AX56">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY56">
-        <v>-1</v>
+        <v>29</v>
       </c>
       <c r="AZ56">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BA56">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB56">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC56">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD56">
         <v>1.24</v>

--- a/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/China Chinese Super League_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="167">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -379,6 +379,18 @@
     <t>['6', '63', '75', '90+6']</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['34', '57']</t>
+  </si>
+  <si>
+    <t>['63', '72']</t>
+  </si>
+  <si>
+    <t>['59']</t>
+  </si>
+  <si>
     <t>['81', '90+3']</t>
   </si>
   <si>
@@ -472,9 +484,6 @@
     <t>['3', '6']</t>
   </si>
   <si>
-    <t>['57']</t>
-  </si>
-  <si>
     <t>['13', '54']</t>
   </si>
   <si>
@@ -485,6 +494,27 @@
   </si>
   <si>
     <t>['3', '82']</t>
+  </si>
+  <si>
+    <t>['31', '38']</t>
+  </si>
+  <si>
+    <t>['5', '9', '23']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['45+3', '52']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['33', '79', '83']</t>
+  </si>
+  <si>
+    <t>['11']</t>
   </si>
 </sst>
 </file>
@@ -846,7 +876,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP56"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1105,7 +1135,7 @@
         <v>86</v>
       </c>
       <c r="P2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>1.7</v>
@@ -1311,7 +1341,7 @@
         <v>87</v>
       </c>
       <c r="P3" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q3">
         <v>2.78</v>
@@ -1389,10 +1419,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1517,7 +1547,7 @@
         <v>88</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q4">
         <v>1.9</v>
@@ -1595,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -1723,7 +1753,7 @@
         <v>89</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q5">
         <v>2.55</v>
@@ -1804,7 +1834,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1929,7 +1959,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>4.5</v>
@@ -2007,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2213,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ7">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2419,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
         <v>1.5</v>
@@ -2547,7 +2577,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q9">
         <v>4.5</v>
@@ -2628,7 +2658,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ9">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3165,7 +3195,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>2.22</v>
@@ -3246,7 +3276,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ12">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3452,7 +3482,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ13">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR13">
         <v>2.48</v>
@@ -3655,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ14">
         <v>1.67</v>
@@ -3783,7 +3813,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4067,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ16">
         <v>2</v>
@@ -4195,7 +4225,7 @@
         <v>90</v>
       </c>
       <c r="P17" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>3.3</v>
@@ -4273,10 +4303,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4401,7 +4431,7 @@
         <v>96</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4479,7 +4509,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -4607,7 +4637,7 @@
         <v>90</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q19">
         <v>3.5</v>
@@ -4685,10 +4715,10 @@
         <v>2</v>
       </c>
       <c r="AP19">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4891,10 +4921,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>1.66</v>
@@ -5097,10 +5127,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ21">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR21">
         <v>0.99</v>
@@ -5303,10 +5333,10 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>2.37</v>
@@ -5431,7 +5461,7 @@
         <v>90</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q23">
         <v>3.25</v>
@@ -5512,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="AQ23">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5637,7 +5667,7 @@
         <v>90</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -5718,7 +5748,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ24">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AR24">
         <v>1.89</v>
@@ -5843,7 +5873,7 @@
         <v>99</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q25">
         <v>3.25</v>
@@ -6049,7 +6079,7 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q26">
         <v>2.02</v>
@@ -6127,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1.33</v>
@@ -6255,7 +6285,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q27">
         <v>5.8</v>
@@ -6336,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AQ27">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AR27">
         <v>1.22</v>
@@ -6461,7 +6491,7 @@
         <v>90</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6667,7 +6697,7 @@
         <v>90</v>
       </c>
       <c r="P29" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6748,7 +6778,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR29">
         <v>1.72</v>
@@ -6873,7 +6903,7 @@
         <v>102</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7160,7 +7190,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR31">
         <v>1.04</v>
@@ -7285,7 +7315,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>3</v>
@@ -7491,7 +7521,7 @@
         <v>99</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>1.73</v>
@@ -7569,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33">
         <v>0.75</v>
@@ -7697,7 +7727,7 @@
         <v>90</v>
       </c>
       <c r="P34" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q34">
         <v>6.4</v>
@@ -7903,7 +7933,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>1.96</v>
@@ -7984,7 +8014,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR35">
         <v>1.8</v>
@@ -8109,7 +8139,7 @@
         <v>106</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>1.98</v>
@@ -8315,7 +8345,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>2.1</v>
@@ -8521,7 +8551,7 @@
         <v>87</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q38">
         <v>3.25</v>
@@ -8599,10 +8629,10 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR38">
         <v>1.05</v>
@@ -8805,7 +8835,7 @@
         <v>1.5</v>
       </c>
       <c r="AP39">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9011,7 +9041,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ40">
         <v>1</v>
@@ -9220,7 +9250,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ41">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR41">
         <v>0.89</v>
@@ -9345,7 +9375,7 @@
         <v>110</v>
       </c>
       <c r="P42" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q42">
         <v>2.6</v>
@@ -9426,7 +9456,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR42">
         <v>1.84</v>
@@ -9551,7 +9581,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q43">
         <v>2.3</v>
@@ -9632,7 +9662,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ43">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AR43">
         <v>2.56</v>
@@ -9757,7 +9787,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>4.75</v>
@@ -10044,7 +10074,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ45">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR45">
         <v>1.43</v>
@@ -10169,7 +10199,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="Q46">
         <v>2.2</v>
@@ -10247,10 +10277,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR46">
         <v>1.97</v>
@@ -10375,7 +10405,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q47">
         <v>2.4</v>
@@ -10453,7 +10483,7 @@
         <v>1.5</v>
       </c>
       <c r="AP47">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ47">
         <v>0.75</v>
@@ -10787,7 +10817,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="Q49">
         <v>2.75</v>
@@ -10865,7 +10895,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -10993,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="P50" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>2.88</v>
@@ -11071,10 +11101,10 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR50">
         <v>1.28</v>
@@ -11199,7 +11229,7 @@
         <v>118</v>
       </c>
       <c r="P51" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>2</v>
@@ -11405,7 +11435,7 @@
         <v>119</v>
       </c>
       <c r="P52" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q52">
         <v>1.83</v>
@@ -11483,7 +11513,7 @@
         <v>2</v>
       </c>
       <c r="AP52">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ52">
         <v>1.5</v>
@@ -11689,7 +11719,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -11817,7 +11847,7 @@
         <v>90</v>
       </c>
       <c r="P54" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q54">
         <v>7.5</v>
@@ -11898,7 +11928,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ54">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AR54">
         <v>0.95</v>
@@ -12104,7 +12134,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ55">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR55">
         <v>1.53</v>
@@ -12386,6 +12416,1654 @@
       </c>
       <c r="BP56">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7347813</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45408.29166666666</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>71</v>
+      </c>
+      <c r="H57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+      <c r="K57">
+        <v>2</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>2</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>90</v>
+      </c>
+      <c r="P57" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q57">
+        <v>3</v>
+      </c>
+      <c r="R57">
+        <v>2.05</v>
+      </c>
+      <c r="S57">
+        <v>3.75</v>
+      </c>
+      <c r="T57">
+        <v>1.44</v>
+      </c>
+      <c r="U57">
+        <v>2.63</v>
+      </c>
+      <c r="V57">
+        <v>3.25</v>
+      </c>
+      <c r="W57">
+        <v>1.33</v>
+      </c>
+      <c r="X57">
+        <v>9</v>
+      </c>
+      <c r="Y57">
+        <v>1.07</v>
+      </c>
+      <c r="Z57">
+        <v>2.3</v>
+      </c>
+      <c r="AA57">
+        <v>3.07</v>
+      </c>
+      <c r="AB57">
+        <v>2.55</v>
+      </c>
+      <c r="AC57">
+        <v>1.06</v>
+      </c>
+      <c r="AD57">
+        <v>8</v>
+      </c>
+      <c r="AE57">
+        <v>1.36</v>
+      </c>
+      <c r="AF57">
+        <v>3</v>
+      </c>
+      <c r="AG57">
+        <v>2.2</v>
+      </c>
+      <c r="AH57">
+        <v>1.6</v>
+      </c>
+      <c r="AI57">
+        <v>1.91</v>
+      </c>
+      <c r="AJ57">
+        <v>1.91</v>
+      </c>
+      <c r="AK57">
+        <v>1.33</v>
+      </c>
+      <c r="AL57">
+        <v>1.28</v>
+      </c>
+      <c r="AM57">
+        <v>1.62</v>
+      </c>
+      <c r="AN57">
+        <v>1.33</v>
+      </c>
+      <c r="AO57">
+        <v>0.67</v>
+      </c>
+      <c r="AP57">
+        <v>1</v>
+      </c>
+      <c r="AQ57">
+        <v>1.25</v>
+      </c>
+      <c r="AR57">
+        <v>1.14</v>
+      </c>
+      <c r="AS57">
+        <v>1.16</v>
+      </c>
+      <c r="AT57">
+        <v>2.3</v>
+      </c>
+      <c r="AU57">
+        <v>3</v>
+      </c>
+      <c r="AV57">
+        <v>5</v>
+      </c>
+      <c r="AW57">
+        <v>1</v>
+      </c>
+      <c r="AX57">
+        <v>7</v>
+      </c>
+      <c r="AY57">
+        <v>4</v>
+      </c>
+      <c r="AZ57">
+        <v>12</v>
+      </c>
+      <c r="BA57">
+        <v>4</v>
+      </c>
+      <c r="BB57">
+        <v>4</v>
+      </c>
+      <c r="BC57">
+        <v>8</v>
+      </c>
+      <c r="BD57">
+        <v>2.1</v>
+      </c>
+      <c r="BE57">
+        <v>7.5</v>
+      </c>
+      <c r="BF57">
+        <v>2</v>
+      </c>
+      <c r="BG57">
+        <v>1.31</v>
+      </c>
+      <c r="BH57">
+        <v>3.15</v>
+      </c>
+      <c r="BI57">
+        <v>1.63</v>
+      </c>
+      <c r="BJ57">
+        <v>2.13</v>
+      </c>
+      <c r="BK57">
+        <v>2.07</v>
+      </c>
+      <c r="BL57">
+        <v>1.67</v>
+      </c>
+      <c r="BM57">
+        <v>2.77</v>
+      </c>
+      <c r="BN57">
+        <v>1.39</v>
+      </c>
+      <c r="BO57">
+        <v>3.7</v>
+      </c>
+      <c r="BP57">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7347814</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45408.33333333334</v>
+      </c>
+      <c r="F58">
+        <v>8</v>
+      </c>
+      <c r="G58" t="s">
+        <v>82</v>
+      </c>
+      <c r="H58" t="s">
+        <v>78</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>3</v>
+      </c>
+      <c r="N58">
+        <v>4</v>
+      </c>
+      <c r="O58" t="s">
+        <v>121</v>
+      </c>
+      <c r="P58" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q58">
+        <v>2.8</v>
+      </c>
+      <c r="R58">
+        <v>1.95</v>
+      </c>
+      <c r="S58">
+        <v>3.9</v>
+      </c>
+      <c r="T58">
+        <v>1.45</v>
+      </c>
+      <c r="U58">
+        <v>2.55</v>
+      </c>
+      <c r="V58">
+        <v>3</v>
+      </c>
+      <c r="W58">
+        <v>1.33</v>
+      </c>
+      <c r="X58">
+        <v>7.5</v>
+      </c>
+      <c r="Y58">
+        <v>1.06</v>
+      </c>
+      <c r="Z58">
+        <v>2.12</v>
+      </c>
+      <c r="AA58">
+        <v>3.05</v>
+      </c>
+      <c r="AB58">
+        <v>3.23</v>
+      </c>
+      <c r="AC58">
+        <v>1.07</v>
+      </c>
+      <c r="AD58">
+        <v>7.5</v>
+      </c>
+      <c r="AE58">
+        <v>1.36</v>
+      </c>
+      <c r="AF58">
+        <v>2.95</v>
+      </c>
+      <c r="AG58">
+        <v>2.1</v>
+      </c>
+      <c r="AH58">
+        <v>1.7</v>
+      </c>
+      <c r="AI58">
+        <v>1.91</v>
+      </c>
+      <c r="AJ58">
+        <v>1.91</v>
+      </c>
+      <c r="AK58">
+        <v>1.3</v>
+      </c>
+      <c r="AL58">
+        <v>1.3</v>
+      </c>
+      <c r="AM58">
+        <v>1.65</v>
+      </c>
+      <c r="AN58">
+        <v>0.67</v>
+      </c>
+      <c r="AO58">
+        <v>0.25</v>
+      </c>
+      <c r="AP58">
+        <v>0.5</v>
+      </c>
+      <c r="AQ58">
+        <v>0.8</v>
+      </c>
+      <c r="AR58">
+        <v>1.44</v>
+      </c>
+      <c r="AS58">
+        <v>1.31</v>
+      </c>
+      <c r="AT58">
+        <v>2.75</v>
+      </c>
+      <c r="AU58">
+        <v>6</v>
+      </c>
+      <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>9</v>
+      </c>
+      <c r="AX58">
+        <v>4</v>
+      </c>
+      <c r="AY58">
+        <v>15</v>
+      </c>
+      <c r="AZ58">
+        <v>9</v>
+      </c>
+      <c r="BA58">
+        <v>6</v>
+      </c>
+      <c r="BB58">
+        <v>3</v>
+      </c>
+      <c r="BC58">
+        <v>9</v>
+      </c>
+      <c r="BD58">
+        <v>1.73</v>
+      </c>
+      <c r="BE58">
+        <v>8</v>
+      </c>
+      <c r="BF58">
+        <v>2.5</v>
+      </c>
+      <c r="BG58">
+        <v>1.32</v>
+      </c>
+      <c r="BH58">
+        <v>3.1</v>
+      </c>
+      <c r="BI58">
+        <v>1.61</v>
+      </c>
+      <c r="BJ58">
+        <v>2.17</v>
+      </c>
+      <c r="BK58">
+        <v>2.07</v>
+      </c>
+      <c r="BL58">
+        <v>1.67</v>
+      </c>
+      <c r="BM58">
+        <v>2.77</v>
+      </c>
+      <c r="BN58">
+        <v>1.39</v>
+      </c>
+      <c r="BO58">
+        <v>3.8</v>
+      </c>
+      <c r="BP58">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7347818</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45408.35763888889</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+      <c r="G59" t="s">
+        <v>83</v>
+      </c>
+      <c r="H59" t="s">
+        <v>73</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>2</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>122</v>
+      </c>
+      <c r="P59" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q59">
+        <v>3.15</v>
+      </c>
+      <c r="R59">
+        <v>2.16</v>
+      </c>
+      <c r="S59">
+        <v>3.08</v>
+      </c>
+      <c r="T59">
+        <v>1.36</v>
+      </c>
+      <c r="U59">
+        <v>2.99</v>
+      </c>
+      <c r="V59">
+        <v>2.67</v>
+      </c>
+      <c r="W59">
+        <v>1.44</v>
+      </c>
+      <c r="X59">
+        <v>6.6</v>
+      </c>
+      <c r="Y59">
+        <v>1.09</v>
+      </c>
+      <c r="Z59">
+        <v>2.23</v>
+      </c>
+      <c r="AA59">
+        <v>3.31</v>
+      </c>
+      <c r="AB59">
+        <v>2.5</v>
+      </c>
+      <c r="AC59">
+        <v>1.01</v>
+      </c>
+      <c r="AD59">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE59">
+        <v>1.24</v>
+      </c>
+      <c r="AF59">
+        <v>3.48</v>
+      </c>
+      <c r="AG59">
+        <v>1.75</v>
+      </c>
+      <c r="AH59">
+        <v>1.85</v>
+      </c>
+      <c r="AI59">
+        <v>1.65</v>
+      </c>
+      <c r="AJ59">
+        <v>2.11</v>
+      </c>
+      <c r="AK59">
+        <v>1.48</v>
+      </c>
+      <c r="AL59">
+        <v>1.28</v>
+      </c>
+      <c r="AM59">
+        <v>1.48</v>
+      </c>
+      <c r="AN59">
+        <v>0.33</v>
+      </c>
+      <c r="AO59">
+        <v>2.25</v>
+      </c>
+      <c r="AP59">
+        <v>1</v>
+      </c>
+      <c r="AQ59">
+        <v>1.8</v>
+      </c>
+      <c r="AR59">
+        <v>1.86</v>
+      </c>
+      <c r="AS59">
+        <v>1.52</v>
+      </c>
+      <c r="AT59">
+        <v>3.38</v>
+      </c>
+      <c r="AU59">
+        <v>5</v>
+      </c>
+      <c r="AV59">
+        <v>5</v>
+      </c>
+      <c r="AW59">
+        <v>5</v>
+      </c>
+      <c r="AX59">
+        <v>1</v>
+      </c>
+      <c r="AY59">
+        <v>10</v>
+      </c>
+      <c r="AZ59">
+        <v>6</v>
+      </c>
+      <c r="BA59">
+        <v>4</v>
+      </c>
+      <c r="BB59">
+        <v>4</v>
+      </c>
+      <c r="BC59">
+        <v>8</v>
+      </c>
+      <c r="BD59">
+        <v>1.91</v>
+      </c>
+      <c r="BE59">
+        <v>8</v>
+      </c>
+      <c r="BF59">
+        <v>2.2</v>
+      </c>
+      <c r="BG59">
+        <v>1.28</v>
+      </c>
+      <c r="BH59">
+        <v>3.35</v>
+      </c>
+      <c r="BI59">
+        <v>1.53</v>
+      </c>
+      <c r="BJ59">
+        <v>2.33</v>
+      </c>
+      <c r="BK59">
+        <v>1.99</v>
+      </c>
+      <c r="BL59">
+        <v>1.73</v>
+      </c>
+      <c r="BM59">
+        <v>2.62</v>
+      </c>
+      <c r="BN59">
+        <v>1.43</v>
+      </c>
+      <c r="BO59">
+        <v>3.5</v>
+      </c>
+      <c r="BP59">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7347817</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45408.35763888889</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
+      <c r="G60" t="s">
+        <v>76</v>
+      </c>
+      <c r="H60" t="s">
+        <v>85</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>2</v>
+      </c>
+      <c r="N60">
+        <v>3</v>
+      </c>
+      <c r="O60" t="s">
+        <v>106</v>
+      </c>
+      <c r="P60" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q60">
+        <v>3.4</v>
+      </c>
+      <c r="R60">
+        <v>2.2</v>
+      </c>
+      <c r="S60">
+        <v>3.1</v>
+      </c>
+      <c r="T60">
+        <v>1.4</v>
+      </c>
+      <c r="U60">
+        <v>2.75</v>
+      </c>
+      <c r="V60">
+        <v>2.75</v>
+      </c>
+      <c r="W60">
+        <v>1.4</v>
+      </c>
+      <c r="X60">
+        <v>8</v>
+      </c>
+      <c r="Y60">
+        <v>1.08</v>
+      </c>
+      <c r="Z60">
+        <v>2.65</v>
+      </c>
+      <c r="AA60">
+        <v>3.35</v>
+      </c>
+      <c r="AB60">
+        <v>2.1</v>
+      </c>
+      <c r="AC60">
+        <v>1.05</v>
+      </c>
+      <c r="AD60">
+        <v>8.5</v>
+      </c>
+      <c r="AE60">
+        <v>1.28</v>
+      </c>
+      <c r="AF60">
+        <v>3.4</v>
+      </c>
+      <c r="AG60">
+        <v>1.75</v>
+      </c>
+      <c r="AH60">
+        <v>1.95</v>
+      </c>
+      <c r="AI60">
+        <v>1.7</v>
+      </c>
+      <c r="AJ60">
+        <v>2.05</v>
+      </c>
+      <c r="AK60">
+        <v>1.5</v>
+      </c>
+      <c r="AL60">
+        <v>1.25</v>
+      </c>
+      <c r="AM60">
+        <v>1.42</v>
+      </c>
+      <c r="AN60">
+        <v>1.75</v>
+      </c>
+      <c r="AO60">
+        <v>2</v>
+      </c>
+      <c r="AP60">
+        <v>1.4</v>
+      </c>
+      <c r="AQ60">
+        <v>2.2</v>
+      </c>
+      <c r="AR60">
+        <v>1.57</v>
+      </c>
+      <c r="AS60">
+        <v>1.28</v>
+      </c>
+      <c r="AT60">
+        <v>2.85</v>
+      </c>
+      <c r="AU60">
+        <v>10</v>
+      </c>
+      <c r="AV60">
+        <v>4</v>
+      </c>
+      <c r="AW60">
+        <v>7</v>
+      </c>
+      <c r="AX60">
+        <v>3</v>
+      </c>
+      <c r="AY60">
+        <v>17</v>
+      </c>
+      <c r="AZ60">
+        <v>7</v>
+      </c>
+      <c r="BA60">
+        <v>10</v>
+      </c>
+      <c r="BB60">
+        <v>2</v>
+      </c>
+      <c r="BC60">
+        <v>12</v>
+      </c>
+      <c r="BD60">
+        <v>2.2</v>
+      </c>
+      <c r="BE60">
+        <v>7.5</v>
+      </c>
+      <c r="BF60">
+        <v>1.91</v>
+      </c>
+      <c r="BG60">
+        <v>1.31</v>
+      </c>
+      <c r="BH60">
+        <v>3.15</v>
+      </c>
+      <c r="BI60">
+        <v>1.58</v>
+      </c>
+      <c r="BJ60">
+        <v>2.23</v>
+      </c>
+      <c r="BK60">
+        <v>2.07</v>
+      </c>
+      <c r="BL60">
+        <v>1.67</v>
+      </c>
+      <c r="BM60">
+        <v>2.75</v>
+      </c>
+      <c r="BN60">
+        <v>1.4</v>
+      </c>
+      <c r="BO60">
+        <v>3.7</v>
+      </c>
+      <c r="BP60">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7347816</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45408.35763888889</v>
+      </c>
+      <c r="F61">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>84</v>
+      </c>
+      <c r="H61" t="s">
+        <v>77</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>90</v>
+      </c>
+      <c r="P61" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q61">
+        <v>2.75</v>
+      </c>
+      <c r="R61">
+        <v>2.05</v>
+      </c>
+      <c r="S61">
+        <v>4.33</v>
+      </c>
+      <c r="T61">
+        <v>1.5</v>
+      </c>
+      <c r="U61">
+        <v>2.5</v>
+      </c>
+      <c r="V61">
+        <v>3.25</v>
+      </c>
+      <c r="W61">
+        <v>1.33</v>
+      </c>
+      <c r="X61">
+        <v>10</v>
+      </c>
+      <c r="Y61">
+        <v>1.06</v>
+      </c>
+      <c r="Z61">
+        <v>1.78</v>
+      </c>
+      <c r="AA61">
+        <v>3.25</v>
+      </c>
+      <c r="AB61">
+        <v>3.53</v>
+      </c>
+      <c r="AC61">
+        <v>1.07</v>
+      </c>
+      <c r="AD61">
+        <v>7.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.38</v>
+      </c>
+      <c r="AF61">
+        <v>2.88</v>
+      </c>
+      <c r="AG61">
+        <v>1.91</v>
+      </c>
+      <c r="AH61">
+        <v>1.69</v>
+      </c>
+      <c r="AI61">
+        <v>1.95</v>
+      </c>
+      <c r="AJ61">
+        <v>1.8</v>
+      </c>
+      <c r="AK61">
+        <v>1.25</v>
+      </c>
+      <c r="AL61">
+        <v>1.28</v>
+      </c>
+      <c r="AM61">
+        <v>1.73</v>
+      </c>
+      <c r="AN61">
+        <v>0</v>
+      </c>
+      <c r="AO61">
+        <v>0.67</v>
+      </c>
+      <c r="AP61">
+        <v>0</v>
+      </c>
+      <c r="AQ61">
+        <v>1.25</v>
+      </c>
+      <c r="AR61">
+        <v>0.98</v>
+      </c>
+      <c r="AS61">
+        <v>0.79</v>
+      </c>
+      <c r="AT61">
+        <v>1.77</v>
+      </c>
+      <c r="AU61">
+        <v>5</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>5</v>
+      </c>
+      <c r="AX61">
+        <v>4</v>
+      </c>
+      <c r="AY61">
+        <v>10</v>
+      </c>
+      <c r="AZ61">
+        <v>10</v>
+      </c>
+      <c r="BA61">
+        <v>7</v>
+      </c>
+      <c r="BB61">
+        <v>4</v>
+      </c>
+      <c r="BC61">
+        <v>11</v>
+      </c>
+      <c r="BD61">
+        <v>1.83</v>
+      </c>
+      <c r="BE61">
+        <v>7.5</v>
+      </c>
+      <c r="BF61">
+        <v>2.3</v>
+      </c>
+      <c r="BG61">
+        <v>1.36</v>
+      </c>
+      <c r="BH61">
+        <v>2.9</v>
+      </c>
+      <c r="BI61">
+        <v>1.67</v>
+      </c>
+      <c r="BJ61">
+        <v>2.07</v>
+      </c>
+      <c r="BK61">
+        <v>2.13</v>
+      </c>
+      <c r="BL61">
+        <v>1.63</v>
+      </c>
+      <c r="BM61">
+        <v>2.9</v>
+      </c>
+      <c r="BN61">
+        <v>1.36</v>
+      </c>
+      <c r="BO61">
+        <v>3.7</v>
+      </c>
+      <c r="BP61">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7347815</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45408.35763888889</v>
+      </c>
+      <c r="F62">
+        <v>8</v>
+      </c>
+      <c r="G62" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>3</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62" t="s">
+        <v>123</v>
+      </c>
+      <c r="P62" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q62">
+        <v>3.11</v>
+      </c>
+      <c r="R62">
+        <v>2.27</v>
+      </c>
+      <c r="S62">
+        <v>3.3</v>
+      </c>
+      <c r="T62">
+        <v>1.34</v>
+      </c>
+      <c r="U62">
+        <v>3.15</v>
+      </c>
+      <c r="V62">
+        <v>2.73</v>
+      </c>
+      <c r="W62">
+        <v>1.44</v>
+      </c>
+      <c r="X62">
+        <v>6.6</v>
+      </c>
+      <c r="Y62">
+        <v>1.09</v>
+      </c>
+      <c r="Z62">
+        <v>2.52</v>
+      </c>
+      <c r="AA62">
+        <v>3.42</v>
+      </c>
+      <c r="AB62">
+        <v>2.69</v>
+      </c>
+      <c r="AC62">
+        <v>1.05</v>
+      </c>
+      <c r="AD62">
+        <v>8.5</v>
+      </c>
+      <c r="AE62">
+        <v>1.28</v>
+      </c>
+      <c r="AF62">
+        <v>3.55</v>
+      </c>
+      <c r="AG62">
+        <v>1.85</v>
+      </c>
+      <c r="AH62">
+        <v>1.96</v>
+      </c>
+      <c r="AI62">
+        <v>1.62</v>
+      </c>
+      <c r="AJ62">
+        <v>2.1</v>
+      </c>
+      <c r="AK62">
+        <v>1.45</v>
+      </c>
+      <c r="AL62">
+        <v>1.25</v>
+      </c>
+      <c r="AM62">
+        <v>1.5</v>
+      </c>
+      <c r="AN62">
+        <v>2.25</v>
+      </c>
+      <c r="AO62">
+        <v>0.67</v>
+      </c>
+      <c r="AP62">
+        <v>1.8</v>
+      </c>
+      <c r="AQ62">
+        <v>1.25</v>
+      </c>
+      <c r="AR62">
+        <v>1.2</v>
+      </c>
+      <c r="AS62">
+        <v>1.07</v>
+      </c>
+      <c r="AT62">
+        <v>2.27</v>
+      </c>
+      <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
+        <v>11</v>
+      </c>
+      <c r="AW62">
+        <v>2</v>
+      </c>
+      <c r="AX62">
+        <v>9</v>
+      </c>
+      <c r="AY62">
+        <v>7</v>
+      </c>
+      <c r="AZ62">
+        <v>20</v>
+      </c>
+      <c r="BA62">
+        <v>4</v>
+      </c>
+      <c r="BB62">
+        <v>6</v>
+      </c>
+      <c r="BC62">
+        <v>10</v>
+      </c>
+      <c r="BD62">
+        <v>1.91</v>
+      </c>
+      <c r="BE62">
+        <v>7.5</v>
+      </c>
+      <c r="BF62">
+        <v>2.2</v>
+      </c>
+      <c r="BG62">
+        <v>1.31</v>
+      </c>
+      <c r="BH62">
+        <v>3.15</v>
+      </c>
+      <c r="BI62">
+        <v>1.58</v>
+      </c>
+      <c r="BJ62">
+        <v>2.23</v>
+      </c>
+      <c r="BK62">
+        <v>2.07</v>
+      </c>
+      <c r="BL62">
+        <v>1.67</v>
+      </c>
+      <c r="BM62">
+        <v>2.75</v>
+      </c>
+      <c r="BN62">
+        <v>1.4</v>
+      </c>
+      <c r="BO62">
+        <v>3.7</v>
+      </c>
+      <c r="BP62">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7347819</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45408.375</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
+      <c r="G63" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" t="s">
+        <v>70</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>90</v>
+      </c>
+      <c r="P63" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q63">
+        <v>2.75</v>
+      </c>
+      <c r="R63">
+        <v>2.2</v>
+      </c>
+      <c r="S63">
+        <v>3.75</v>
+      </c>
+      <c r="T63">
+        <v>1.36</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>2.63</v>
+      </c>
+      <c r="W63">
+        <v>1.44</v>
+      </c>
+      <c r="X63">
+        <v>7</v>
+      </c>
+      <c r="Y63">
+        <v>1.1</v>
+      </c>
+      <c r="Z63">
+        <v>2.07</v>
+      </c>
+      <c r="AA63">
+        <v>3.24</v>
+      </c>
+      <c r="AB63">
+        <v>3.14</v>
+      </c>
+      <c r="AC63">
+        <v>1.05</v>
+      </c>
+      <c r="AD63">
+        <v>8.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.25</v>
+      </c>
+      <c r="AF63">
+        <v>3.65</v>
+      </c>
+      <c r="AG63">
+        <v>1.75</v>
+      </c>
+      <c r="AH63">
+        <v>1.93</v>
+      </c>
+      <c r="AI63">
+        <v>1.67</v>
+      </c>
+      <c r="AJ63">
+        <v>2.1</v>
+      </c>
+      <c r="AK63">
+        <v>1.33</v>
+      </c>
+      <c r="AL63">
+        <v>1.25</v>
+      </c>
+      <c r="AM63">
+        <v>1.67</v>
+      </c>
+      <c r="AN63">
+        <v>3</v>
+      </c>
+      <c r="AO63">
+        <v>1.5</v>
+      </c>
+      <c r="AP63">
+        <v>2.4</v>
+      </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
+      <c r="AR63">
+        <v>1.51</v>
+      </c>
+      <c r="AS63">
+        <v>1.64</v>
+      </c>
+      <c r="AT63">
+        <v>3.15</v>
+      </c>
+      <c r="AU63">
+        <v>4</v>
+      </c>
+      <c r="AV63">
+        <v>4</v>
+      </c>
+      <c r="AW63">
+        <v>13</v>
+      </c>
+      <c r="AX63">
+        <v>1</v>
+      </c>
+      <c r="AY63">
+        <v>17</v>
+      </c>
+      <c r="AZ63">
+        <v>5</v>
+      </c>
+      <c r="BA63">
+        <v>5</v>
+      </c>
+      <c r="BB63">
+        <v>1</v>
+      </c>
+      <c r="BC63">
+        <v>6</v>
+      </c>
+      <c r="BD63">
+        <v>1.8</v>
+      </c>
+      <c r="BE63">
+        <v>8</v>
+      </c>
+      <c r="BF63">
+        <v>2.3</v>
+      </c>
+      <c r="BG63">
+        <v>1.28</v>
+      </c>
+      <c r="BH63">
+        <v>3.35</v>
+      </c>
+      <c r="BI63">
+        <v>1.53</v>
+      </c>
+      <c r="BJ63">
+        <v>2.33</v>
+      </c>
+      <c r="BK63">
+        <v>1.99</v>
+      </c>
+      <c r="BL63">
+        <v>1.73</v>
+      </c>
+      <c r="BM63">
+        <v>2.62</v>
+      </c>
+      <c r="BN63">
+        <v>1.43</v>
+      </c>
+      <c r="BO63">
+        <v>3.5</v>
+      </c>
+      <c r="BP63">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7347820</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45409.35763888889</v>
+      </c>
+      <c r="F64">
+        <v>8</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>124</v>
+      </c>
+      <c r="P64" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q64">
+        <v>2.5</v>
+      </c>
+      <c r="R64">
+        <v>2.1</v>
+      </c>
+      <c r="S64">
+        <v>4.5</v>
+      </c>
+      <c r="T64">
+        <v>1.4</v>
+      </c>
+      <c r="U64">
+        <v>2.75</v>
+      </c>
+      <c r="V64">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>1.36</v>
+      </c>
+      <c r="X64">
+        <v>8</v>
+      </c>
+      <c r="Y64">
+        <v>1.08</v>
+      </c>
+      <c r="Z64">
+        <v>1.85</v>
+      </c>
+      <c r="AA64">
+        <v>3.5</v>
+      </c>
+      <c r="AB64">
+        <v>4.2</v>
+      </c>
+      <c r="AC64">
+        <v>1.05</v>
+      </c>
+      <c r="AD64">
+        <v>8.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.3</v>
+      </c>
+      <c r="AF64">
+        <v>3.25</v>
+      </c>
+      <c r="AG64">
+        <v>1.88</v>
+      </c>
+      <c r="AH64">
+        <v>1.98</v>
+      </c>
+      <c r="AI64">
+        <v>1.91</v>
+      </c>
+      <c r="AJ64">
+        <v>1.91</v>
+      </c>
+      <c r="AK64">
+        <v>1.18</v>
+      </c>
+      <c r="AL64">
+        <v>1.25</v>
+      </c>
+      <c r="AM64">
+        <v>1.9</v>
+      </c>
+      <c r="AN64">
+        <v>3</v>
+      </c>
+      <c r="AO64">
+        <v>3</v>
+      </c>
+      <c r="AP64">
+        <v>2.5</v>
+      </c>
+      <c r="AQ64">
+        <v>2.6</v>
+      </c>
+      <c r="AR64">
+        <v>2.2</v>
+      </c>
+      <c r="AS64">
+        <v>1.73</v>
+      </c>
+      <c r="AT64">
+        <v>3.93</v>
+      </c>
+      <c r="AU64">
+        <v>3</v>
+      </c>
+      <c r="AV64">
+        <v>5</v>
+      </c>
+      <c r="AW64">
+        <v>5</v>
+      </c>
+      <c r="AX64">
+        <v>5</v>
+      </c>
+      <c r="AY64">
+        <v>8</v>
+      </c>
+      <c r="AZ64">
+        <v>10</v>
+      </c>
+      <c r="BA64">
+        <v>10</v>
+      </c>
+      <c r="BB64">
+        <v>6</v>
+      </c>
+      <c r="BC64">
+        <v>16</v>
+      </c>
+      <c r="BD64">
+        <v>1.44</v>
+      </c>
+      <c r="BE64">
+        <v>8.5</v>
+      </c>
+      <c r="BF64">
+        <v>3.2</v>
+      </c>
+      <c r="BG64">
+        <v>1.43</v>
+      </c>
+      <c r="BH64">
+        <v>2.7</v>
+      </c>
+      <c r="BI64">
+        <v>1.73</v>
+      </c>
+      <c r="BJ64">
+        <v>2.03</v>
+      </c>
+      <c r="BK64">
+        <v>2.2</v>
+      </c>
+      <c r="BL64">
+        <v>1.63</v>
+      </c>
+      <c r="BM64">
+        <v>2.85</v>
+      </c>
+      <c r="BN64">
+        <v>1.39</v>
+      </c>
+      <c r="BO64">
+        <v>4</v>
+      </c>
+      <c r="BP64">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>
